--- a/versions/v11/docs/mobile-attack-v11.3/mobile-attack-v11.3-techniques.xlsx
+++ b/versions/v11/docs/mobile-attack-v11.3/mobile-attack-v11.3-techniques.xlsx
@@ -2143,127 +2143,127 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: Bitdefender Mandrake),(Citation: Check Point-Joker),(Citation: TrendMicro Coronavirus Updates),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: Talos-WolfRAT),(Citation: Check Point-Joker),(Citation: TrendMicro Coronavirus Updates),(Citation: Bitdefender Mandrake),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider),</t>
+    <t>(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),</t>
   </si>
   <si>
     <t>(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
-    <t>(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),(Citation: Google Triada June 2019),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout Desert Scorpion),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: PaloAlto-SpyDealer),(Citation: Cofense Anubis),(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: Lookout-Pegasus),(Citation: Lookout eSurv),(Citation: Lookout ViperRAT),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: CyberMerchants-FlexiSpy),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Symantec GoldenCup),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-PegasusAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: TrendMicro Coronavirus Updates),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler-SpyNote),(Citation: TrendMicro-XLoader),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: Zscaler TikTok Spyware),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),</t>
+    <t>(Citation: Google Triada June 2019),(Citation: Securelist Asacub),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Wandera-RedDrop),(Citation: TrendMicro-XLoader),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),(Citation: Lookout-Dendroid),(Citation: Lookout eSurv),(Citation: Zscaler-SpyNote),(Citation: Zscaler-SuperMarioRun),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-Skygofree),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: Bitdefender - Triout 2018),(Citation: BlackBerry Bahamut),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
     <t>(Citation: HackerNews-OldBoot),</t>
   </si>
   <si>
-    <t>(Citation: Cybereason EventBot),(Citation: ESET DEFENSOR ID),(Citation: Palo Alto HenBox),(Citation: CheckPoint SimBad 2019),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SpyNote),(Citation: Microsoft MalLockerB),(Citation: FortiGuard-FlexiSpy),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos GPlayed),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: Zscaler TikTok Spyware),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: Lookout-Pegasus),(Citation: NYTimes-BackDoor),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: Google Project Zero Insomnia),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-PegasusAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro Coronavirus Updates),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Zscaler-SuperMarioRun),(Citation: Kaspersky-WUC),(Citation: Lookout-Monokle),(Citation: Sophos Red Alert 2.0),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: CheckPoint SimBad 2019),(Citation: Zscaler TikTok Spyware),(Citation: FortiGuard-FlexiSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason EventBot),(Citation: ESET DEFENSOR ID),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),(Citation: Palo Alto HenBox),(Citation: Zscaler-SpyNote),(Citation: Cybereason FakeSpy),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: PaloAlto-SpyDealer),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-Pegasus),(Citation: Kaspersky-WUC),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: NYTimes-BackDoor),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-XcodeGhost),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Desert Scorpion),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Adware),(Citation: Lookout-BrainTest),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: BankInfoSecurity-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: Google Triada June 2019),(Citation: HackerNews-Allwinner),(Citation: NYTimes-BackDoor),(Citation: Lookout-StealthMango),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: PaloAlto-SpyDealer),(Citation: Cofense Anubis),(Citation: Palo Alto HenBox),(Citation: Lookout-Pegasus),(Citation: ThreatFabric Ginp),(Citation: securelist rotexy 2018),(Citation: Lookout eSurv),(Citation: NYTimes-BackDoor),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Symantec GoldenCup),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Threat Fabric Exobot),(Citation: BlackBerry Bahamut),(Citation: Cybereason FakeSpy),(Citation: CheckPoint-Charger),(Citation: TrendMicro Coronavirus Updates),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Kaspersky-WUC),(Citation: Zscaler-SpyNote),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),</t>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Adware),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: Google Triada June 2019),(Citation: HackerNews-Allwinner),(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: Lookout eSurv),(Citation: Zscaler-SpyNote),(Citation: Lookout-Pegasus),(Citation: Kaspersky-WUC),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: NYTimes-BackDoor),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),</t>
   </si>
   <si>
     <t>(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),</t>
   </si>
   <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: Cofense Anubis),(Citation: Palo Alto HenBox),(Citation: Trend Micro Anubis),(Citation: Lookout-Dendroid),(Citation: ThreatFabric Ginp),(Citation: Lookout eSurv),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: TrendMicro-RCSAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: FlexiSpy-Features),(Citation: BlackBerry Bahamut),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Gooligan Citation),(Citation: Zscaler-SpyNote),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: Proofpoint-Marcher),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: Cofense Anubis),(Citation: Google Security Zen),(Citation: Bitdefender Mandrake),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),</t>
+    <t>(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Trend Micro Anubis),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Dendroid),(Citation: Lookout eSurv),(Citation: Zscaler-SpyNote),(Citation: TrendMicro-RCSAndroid),(Citation: FlexiSpy-Features),(Citation: Talos GPlayed),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: ThreatFabric Ginp),(Citation: TrendMicro Coronavirus Updates),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: Bitdefender - Triout 2018),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Gooligan Citation),</t>
+  </si>
+  <si>
+    <t>(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-Anserver),(Citation: TrendMicro-XLoader-FakeSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: Proofpoint-Marcher),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),</t>
+  </si>
+  <si>
+    <t>(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),</t>
   </si>
   <si>
     <t>(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: Cybereason EventBot),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: Trend Micro Anubis),(Citation: Lookout eSurv),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro-RCSAndroid),(Citation: Google Security Zen),(Citation: Threat Fabric Cerberus),(Citation: SecureList DVMap June 2017),(Citation: CheckPoint-Judy),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: BlackBerry Bahamut),(Citation: Xiao-ZergHelper),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: Lookout-BrainTest),(Citation: Google Triada June 2019),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: Google Bread),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Volexity Insomnia),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),</t>
+    <t>(Citation: Talos-WolfRAT),(Citation: Google Triada June 2019),(Citation: Lookout-BrainTest),(Citation: Sophos Red Alert 2.0),(Citation: Google Security Zen),(Citation: Trend Micro Anubis),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Symantec GoldenCup),(Citation: Bitdefender Mandrake),(Citation: SecureList DVMap June 2017),(Citation: CheckPoint-Judy),(Citation: Threat Fabric Cerberus),(Citation: Google Bread),(Citation: Lookout eSurv),(Citation: TrendMicro-RCSAndroid),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: PaloAlto-SpyDealer),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Cybereason EventBot),(Citation: Kaspersky-Skygofree),(Citation: Xiao-ZergHelper),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),(Citation: PaloAlto-Xbot),</t>
+    <t>(Citation: CheckPoint-Charger),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),</t>
   </si>
   <si>
     <t>,(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Triada June 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout eSurv),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Wandera-RedDrop),(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019),</t>
+    <t>(Citation: Google Triada June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Wandera-RedDrop),</t>
   </si>
   <si>
     <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: Gooligan Citation),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-Skygofree),(Citation: PaloAlto-SpyDealer),(Citation: ArsTechnica-HummingBad),(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),(Citation: Google Security Zen),(Citation: Lookout-PegasusAndroid),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Adware),(Citation: SWB Exodus March 2019),(Citation: Lookout-BrainTest),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: Talos GPlayed),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec GoldenCup),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason EventBot),(Citation: Cofense Anubis),(Citation: Lookout-Dendroid),(Citation: ThreatFabric Ginp),(Citation: securelist rotexy 2018),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Cerberus),(Citation: Threat Fabric Exobot),(Citation: WhiteOps TERRACOTTA),(Citation: Group IB Gustuff Mar 2019),(Citation: Proofpoint-Marcher),(Citation: PaloAlto-Xbot),(Citation: PaloAlto-XcodeGhost),(Citation: Bitdefender Mandrake),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: Gooligan Citation),(Citation: CheckPoint SimBad 2019),(Citation: ArsTechnica-HummingBad),(Citation: Google Security Zen),(Citation: ArsTechnica-HummingWhale),(Citation: Google Triada June 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Google Bread),(Citation: Tripwire-MazarBOT),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky Triada June 2016),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Wandera-RedDrop),(Citation: Lookout-BrainTest),(Citation: CheckPoint-Judy),</t>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: CheckPoint Agent Smith),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingBad),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Adware),(Citation: PaloAlto-SpyDealer),(Citation: Gooligan Citation),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint Agent Smith),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: Lookout-Monokle),(Citation: Lookout Desert Scorpion),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Proofpoint-Marcher),(Citation: PaloAlto-Xbot),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: PaloAlto-XcodeGhost),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint SimBad 2019),(Citation: Google Triada June 2019),(Citation: CheckPoint Agent Smith),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingBad),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ArsTechnica-HummingWhale),(Citation: CheckPoint-Judy),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky Triada June 2016),(Citation: Google Bread),(Citation: Google Security Zen),(Citation: Tripwire-MazarBOT),(Citation: WhiteOps TERRACOTTA),(Citation: Wandera-RedDrop),(Citation: Gooligan Citation),</t>
   </si>
   <si>
     <t>(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),</t>
@@ -2275,118 +2275,118 @@
     <t>(Citation: CitizenLab Circles),(Citation: CSRIC-WG1-FinalReport)</t>
   </si>
   <si>
-    <t>(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: Bitdefender Mandrake),(Citation: SecureList - ViceLeaker 2019),</t>
+    <t>(Citation: Wandera-RedDrop),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
     <t>,(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
   </si>
   <si>
-    <t>(Citation: ESET DEFENSOR ID),(Citation: Google Security Zen),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint Cerberus),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),</t>
+    <t>(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: CheckPoint Cerberus),(Citation: ESET DEFENSOR ID),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: Talos Gustuff Apr 2019),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: Cybereason EventBot),(Citation: Cofense Anubis),(Citation: FlexiSpy-Features),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Cerberus),(Citation: SecureList BusyGasper),(Citation: Threat Fabric Exobot),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: Cofense Anubis),(Citation: Palo Alto HenBox),(Citation: Lookout-Pegasus),(Citation: Lookout eSurv),(Citation: NYTimes-BackDoor),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Lookout ViperRAT),(Citation: CyberMerchants-FlexiSpy),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Symantec GoldenCup),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-EnterpriseApps),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: BlackBerry Bahamut),(Citation: CheckPoint-Charger),(Citation: TrendMicro Coronavirus Updates),(Citation: CrowdStrike-Android),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Kaspersky-WUC),(Citation: Zscaler-SpyNote),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WhiteOps TERRACOTTA),(Citation: Google Bread),(Citation: Securelist Asacub),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),(Citation: FortiGuard-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint Cerberus),(Citation: SWB Exodus March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: Cybereason EventBot),(Citation: Palo Alto HenBox),(Citation: ThreatFabric Ginp),(Citation: TrendMicro-Obad),(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Security Zen),(Citation: Talos Gustuff Apr 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Cerberus),(Citation: SecureList DVMap June 2017),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: BlackBerry Bahamut),(Citation: Volexity Insomnia),(Citation: FortiGuard-FlexiSpy),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason FakeSpy),(Citation: CheckPoint-Charger),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-BrainTest),(Citation: TrendMicro-XLoader),(Citation: Microsoft MalLockerB),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: Check Point-Joker),(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: PaloAlto-WireLurker),</t>
-  </si>
-  <si>
-    <t>(Citation: Kaspersky-Skygofree),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky-WUC),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Talos Gustuff Apr 2019),(Citation: SecureList BusyGasper),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: Lookout Desert Scorpion),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Obad),</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Zimperium z9),(Citation: securelist rotexy 2018),(Citation: Trend Micro Bouncing Golf 2019),</t>
+    <t>(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: Threat Fabric Cerberus),(Citation: FlexiSpy-Features),(Citation: BlackBerry Bahamut),(Citation: SecureList BusyGasper),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CrowdStrike-Android),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),(Citation: Google Project Zero Insomnia),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: Lookout eSurv),(Citation: Zscaler-SpyNote),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Pegasus),(Citation: Kaspersky-WUC),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: PaloAlto-SpyDealer),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-Skygofree),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: NYTimes-BackDoor),(Citation: Bitdefender - Triout 2018),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: WhiteOps TERRACOTTA),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: CheckPoint Cerberus),(Citation: SWB Exodus March 2019),(Citation: Volexity Insomnia),(Citation: Sophos Red Alert 2.0),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos-WolfRAT),(Citation: Lookout-BrainTest),(Citation: Trend Micro Bouncing Golf 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-WireLurker),(Citation: TrendMicro-Obad),(Citation: Cybereason FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader),(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: Check Point-Joker),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Bitdefender Mandrake),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: Google Bread),(Citation: Volexity Insomnia),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: Microsoft MalLockerB),(Citation: Palo Alto HenBox),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: securelist rotexy 2018),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Desert Scorpion),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-Obad),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos-WolfRAT),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Zimperium z9),(Citation: securelist rotexy 2018),</t>
   </si>
   <si>
     <t>(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Security Zen),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: Cofense Anubis),(Citation: Lookout-Dendroid),(Citation: ThreatFabric Ginp),(Citation: securelist rotexy 2018),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Threat Fabric Cerberus),(Citation: Threat Fabric Exobot),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-StealthMango),(Citation: Bitdefender Mandrake),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: Cybereason EventBot),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: Lookout-Pegasus),(Citation: ThreatFabric Ginp),(Citation: securelist rotexy 2018),(Citation: NYTimes-BackDoor),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Lookout ViperRAT),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Symantec GoldenCup),(Citation: TrendMicro-RCSAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-EnterpriseApps),(Citation: Tripwire-MazarBOT),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Threat Fabric Exobot),(Citation: SecureList - ViceLeaker 2019),(Citation: FlexiSpy-Features),(Citation: BlackBerry Bahamut),(Citation: Kaspersky Triada March 2016),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Zscaler-SuperMarioRun),(Citation: PaloAlto-Xbot),(Citation: Kaspersky-WUC),(Citation: Zscaler-SpyNote),(Citation: TrendMicro-XLoader),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: Sophos Red Alert 2.0),(Citation: FireEye-RuMMS),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: ESET DEFENSOR ID),(Citation: Cybereason EventBot),(Citation: Cofense Anubis),(Citation: FlexiSpy-Features),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: Nightwatch screencap April 2016)</t>
+    <t>(Citation: Kaspersky Triada March 2016),(Citation: Google Security Zen),(Citation: Google Triada June 2019),(Citation: Google Project Zero Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Zscaler TikTok Spyware),(Citation: SecurityIntelligence TrickMo),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Securelist Asacub),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: Lookout Desert Scorpion),(Citation: ThreatFabric Ginp),(Citation: TrendMicro Coronavirus Updates),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Triada March 2016),(Citation: Cybereason FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList BusyGasper),(Citation: PaloAlto-Xbot),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: Threat Fabric Cerberus),(Citation: Google Bread),(Citation: Zscaler-SpyNote),(Citation: Zscaler-SuperMarioRun),(Citation: TrendMicro-RCSAndroid),(Citation: FlexiSpy-Features),(Citation: Lookout-Pegasus),(Citation: Kaspersky-WUC),(Citation: Talos GPlayed),(Citation: PaloAlto-SpyDealer),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: FireEye-RuMMS),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason EventBot),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: NYTimes-BackDoor),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Tripwire-MazarBOT),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: ESET DEFENSOR ID),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: Nightwatch screencap April 2016)</t>
   </si>
   <si>
     <t>(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: Talos-WolfRAT),(Citation: ESET DEFENSOR ID),(Citation: Cybereason EventBot),(Citation: Cofense Anubis),(Citation: Palo Alto HenBox),(Citation: ThreatFabric Ginp),(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky Riltok June 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: FlexiSpy-Features),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason FakeSpy),(Citation: SecurityIntelligence TrickMo),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),(Citation: Google Triada June 2019),(Citation: Bitdefender Mandrake),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: Android Package Visibility)</t>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Google Triada June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecurityIntelligence TrickMo),(Citation: ESET DEFENSOR ID),(Citation: Cybereason FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),(Citation: Google Project Zero Insomnia),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: FlexiSpy-Features),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: Android Package Visibility)</t>
   </si>
   <si>
     <t>(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),</t>
   </si>
   <si>
-    <t>,(Citation: Trend Micro iOS URL Hijacking),(Citation: iOS Universal Links),(Citation: IETF-PKCE),(Citation: Android App Links)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-Skygofree),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Pegasus),(Citation: SecureList BusyGasper),(Citation: FortiGuard-FlexiSpy),(Citation: Cybereason FakeSpy),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Lookout Desert Scorpion),</t>
+    <t>,(Citation: Trend Micro iOS URL Hijacking),(Citation: IETF-PKCE),(Citation: Android App Links),(Citation: iOS Universal Links)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),</t>
   </si>
   <si>
     <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: CheckPoint SimBad 2019),(Citation: FlexiSpy-Features),(Citation: ESET-Twitoor),(Citation: FortiGuard-FlexiSpy),(Citation: ThreatFabric Ginp),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Group IB Gustuff Mar 2019),(Citation: Threat Fabric Cerberus),(Citation: SecureList BusyGasper),(Citation: Bitdefender - Triout 2018),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: BlackBerry Bahamut),(Citation: Lookout-Dendroid),(Citation: Trend Micro Anubis),(Citation: Bitdefender Mandrake),(Citation: ThreatFabric Ginp),(Citation: Cybereason FakeSpy),(Citation: WhiteOps TERRACOTTA),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason EventBot),(Citation: TrendMicro-Anserver2),(Citation: Cofense Anubis),(Citation: Palo Alto HenBox),(Citation: Lookout-Pegasus),(Citation: securelist rotexy 2018),(Citation: Lookout eSurv),(Citation: CheckPoint Cerberus),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Symantec GoldenCup),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Cerberus),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Exobot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Xiao-KeyRaider),(Citation: BlackBerry Bahamut),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-WUC),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: Securelist Asacub),(Citation: FireEye-RuMMS),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: Cybereason EventBot),(Citation: TrendMicro-Anserver2),(Citation: PaloAlto-SpyDealer),(Citation: securelist rotexy 2018),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: Google Project Zero Insomnia),(Citation: Symantec GoldenCup),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Exobot),(Citation: Wandera-RedDrop),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: Google Bread),(Citation: Securelist Asacub),(Citation: PaloAlto-DualToy),(Citation: FireEye-RuMMS),(Citation: Talos GPlayed),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: FlexiSpy-Features),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
+    <t>(Citation: CheckPoint SimBad 2019),(Citation: Zscaler TikTok Spyware),(Citation: FortiGuard-FlexiSpy),(Citation: ThreatFabric Ginp),(Citation: CheckPoint Agent Smith),(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ESET-Twitoor),(Citation: Threat Fabric Cerberus),(Citation: FlexiSpy-Features),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: SecureList BusyGasper),(Citation: Group IB Gustuff Mar 2019),(Citation: Lookout Desert Scorpion),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: securelist rotexy 2018),(Citation: Cybereason EventBot),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-Dendroid),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: Palo Alto HenBox),(Citation: Trend Micro Anubis),(Citation: Cybereason FakeSpy),(Citation: WhiteOps TERRACOTTA),(Citation: BlackBerry Bahamut),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-Anserver2),(Citation: Trend Micro Bouncing Golf 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecurityIntelligence TrickMo),(Citation: Xiao-KeyRaider),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Wandera-RedDrop),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Bitdefender Mandrake),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: Lookout eSurv),(Citation: Lookout-Pegasus),(Citation: Kaspersky-WUC),(Citation: Talos GPlayed),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: FireEye-RuMMS),(Citation: Kaspersky Riltok June 2019),(Citation: TrendMicro Coronavirus Updates),(Citation: CheckPoint Cerberus),(Citation: Cybereason EventBot),(Citation: Palo Alto HenBox),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: PaloAlto-DualToy),(Citation: TrendMicro-Anserver2),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Wandera-RedDrop),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: PaloAlto-SpyDealer),(Citation: Lookout FrozenCell),(Citation: FireEye-RuMMS),(Citation: Kaspersky Riltok June 2019),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason EventBot),(Citation: Lookout-EnterpriseApps),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: Talos Gustuff Apr 2019),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
     <t>,(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),</t>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: CYBERWARCON CHEMISTGAMES),</t>
   </si>
   <si>
     <t>(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Symantec GoldenCup),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-PegasusAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: TrendMicro Coronavirus Updates),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-Monokle),(Citation: Zscaler TikTok Spyware),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET DEFENSOR ID),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: CheckPoint Cerberus),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Symantec GoldenCup),(Citation: Kaspersky-Skygofree),(Citation: Kaspersky-MobileMalware),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky Riltok June 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Exobot),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Volexity Insomnia),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-WUC),(Citation: Google Bread),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: FireEye-RuMMS),(Citation: Talos GPlayed),</t>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: Symantec GoldenCup),(Citation: Lookout-Dendroid),(Citation: Zscaler-SuperMarioRun),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecurityIntelligence TrickMo),(Citation: ESET DEFENSOR ID),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: Wandera-RedDrop),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: Google Bread),(Citation: Volexity Insomnia),(Citation: Kaspersky-WUC),(Citation: Talos GPlayed),(Citation: FireEye-RuMMS),(Citation: Kaspersky Riltok June 2019),(Citation: TrendMicro Coronavirus Updates),(Citation: CheckPoint Cerberus),(Citation: Cybereason EventBot),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: Bitdefender - Triout 2018),(Citation: Kaspersky-MobileMalware),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v11/docs/mobile-attack-v11.3/mobile-attack-v11.3-techniques.xlsx
+++ b/versions/v11/docs/mobile-attack-v11.3/mobile-attack-v11.3-techniques.xlsx
@@ -2143,25 +2143,25 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: Check Point-Joker),(Citation: TrendMicro Coronavirus Updates),(Citation: Bitdefender Mandrake),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Check Point-Joker),(Citation: Bitdefender Mandrake),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),</t>
+    <t>(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider),</t>
   </si>
   <si>
     <t>(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
-    <t>(Citation: Google Triada June 2019),(Citation: Securelist Asacub),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),</t>
+    <t>(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cofense Anubis),(Citation: Google Triada June 2019),(Citation: Securelist Asacub),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),</t>
   </si>
   <si>
     <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Wandera-RedDrop),(Citation: TrendMicro-XLoader),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),(Citation: Lookout-Dendroid),(Citation: Lookout eSurv),(Citation: Zscaler-SpyNote),(Citation: Zscaler-SuperMarioRun),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-Skygofree),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: Bitdefender - Triout 2018),(Citation: BlackBerry Bahamut),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: Wandera-RedDrop),(Citation: Zscaler-SpyNote),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-EnterpriseApps),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader),(Citation: Symantec GoldenCup),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SuperMarioRun),(Citation: Cofense Anubis),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: TrendMicro-RCSAndroid),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Lookout FrozenCell),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: Lookout-Dendroid),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),</t>
@@ -2170,100 +2170,100 @@
     <t>(Citation: HackerNews-OldBoot),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: CheckPoint SimBad 2019),(Citation: Zscaler TikTok Spyware),(Citation: FortiGuard-FlexiSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason EventBot),(Citation: ESET DEFENSOR ID),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),(Citation: Palo Alto HenBox),(Citation: Zscaler-SpyNote),(Citation: Cybereason FakeSpy),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: PaloAlto-SpyDealer),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-Pegasus),(Citation: Kaspersky-WUC),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: NYTimes-BackDoor),</t>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: Talos GPlayed),(Citation: Lookout-PegasusAndroid),(Citation: FortiGuard-FlexiSpy),(Citation: CheckPoint SimBad 2019),(Citation: Palo Alto HenBox),(Citation: Cybereason FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Microsoft MalLockerB),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: ESET DEFENSOR ID),(Citation: SecurityIntelligence TrickMo),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: NYTimes-BackDoor),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-WUC),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SuperMarioRun),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),</t>
   </si>
   <si>
     <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-XcodeGhost),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Desert Scorpion),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),(Citation: SecureList DVMap June 2017),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Adware),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: Google Triada June 2019),(Citation: HackerNews-Allwinner),(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: Lookout eSurv),(Citation: Zscaler-SpyNote),(Citation: Lookout-Pegasus),(Citation: Kaspersky-WUC),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: NYTimes-BackDoor),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),</t>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Adware),(Citation: Lookout-Pegasus),(Citation: Lookout-BrainTest),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
+  </si>
+  <si>
+    <t>(Citation: HackerNews-Allwinner),(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Triada June 2019),(Citation: Lookout-StealthMango),(Citation: Krebs-Triada June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: ThreatFabric Ginp),(Citation: Zscaler-SpyNote),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-Monokle),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: CheckPoint-Charger),(Citation: Talos Gustuff Apr 2019),(Citation: NYTimes-BackDoor),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-WUC),(Citation: Cybereason FakeSpy),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-PegasusAndroid),(Citation: Cofense Anubis),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),</t>
   </si>
   <si>
     <t>(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),</t>
   </si>
   <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Trend Micro Anubis),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Dendroid),(Citation: Lookout eSurv),(Citation: Zscaler-SpyNote),(Citation: TrendMicro-RCSAndroid),(Citation: FlexiSpy-Features),(Citation: Talos GPlayed),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: ThreatFabric Ginp),(Citation: TrendMicro Coronavirus Updates),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: Bitdefender - Triout 2018),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Gooligan Citation),</t>
-  </si>
-  <si>
-    <t>(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-Anserver),(Citation: TrendMicro-XLoader-FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: Proofpoint-Marcher),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),</t>
-  </si>
-  <si>
-    <t>(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),</t>
+    <t>(Citation: ThreatFabric Ginp),(Citation: Gooligan Citation),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Talos Gustuff Apr 2019),(Citation: Trend Micro Anubis),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: Symantec GoldenCup),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: FlexiSpy-Features),(Citation: TrendMicro-RCSAndroid),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Zscaler-SpyNote),(Citation: Lookout-StealthMango),(Citation: Lookout-Dendroid),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: Sophos Red Alert 2.0),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: Threat Fabric Exobot),(Citation: Proofpoint-Marcher),(Citation: TrendMicro-XLoader),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: Cofense Anubis),(Citation: Google Security Zen),(Citation: Bitdefender Mandrake),(Citation: SecureList DVMap June 2017),</t>
   </si>
   <si>
     <t>(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: Google Triada June 2019),(Citation: Lookout-BrainTest),(Citation: Sophos Red Alert 2.0),(Citation: Google Security Zen),(Citation: Trend Micro Anubis),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Symantec GoldenCup),(Citation: Bitdefender Mandrake),(Citation: SecureList DVMap June 2017),(Citation: CheckPoint-Judy),(Citation: Threat Fabric Cerberus),(Citation: Google Bread),(Citation: Lookout eSurv),(Citation: TrendMicro-RCSAndroid),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: PaloAlto-SpyDealer),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Cybereason EventBot),(Citation: Kaspersky-Skygofree),(Citation: Xiao-ZergHelper),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),</t>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Anubis),(Citation: Google Bread),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: SecureList DVMap June 2017),(Citation: Symantec GoldenCup),(Citation: Threat Fabric Cerberus),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: CheckPoint-Judy),(Citation: Xiao-ZergHelper),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-BrainTest),(Citation: Google Triada June 2019),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: Cybereason EventBot),(Citation: TrendMicro-RCSAndroid),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Lookout FrozenCell),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint-Charger),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),</t>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),(Citation: PaloAlto-Xbot),</t>
   </si>
   <si>
     <t>,(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: Google Triada June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Wandera-RedDrop),</t>
+    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Triada June 2019),(Citation: Wandera-RedDrop),(Citation: Lookout eSurv),(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
     <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: CheckPoint Agent Smith),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingBad),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Adware),(Citation: PaloAlto-SpyDealer),(Citation: Gooligan Citation),</t>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Adware),(Citation: Lookout-Pegasus),(Citation: CheckPoint Agent Smith),(Citation: Gooligan Citation),(Citation: ArsTechnica-HummingBad),(Citation: Google Security Zen),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: Volexity Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: SecureList DVMap June 2017),</t>
   </si>
   <si>
     <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
   </si>
   <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint Agent Smith),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: Lookout-Monokle),(Citation: Lookout Desert Scorpion),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Proofpoint-Marcher),(Citation: PaloAlto-Xbot),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: PaloAlto-XcodeGhost),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint SimBad 2019),(Citation: Google Triada June 2019),(Citation: CheckPoint Agent Smith),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingBad),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ArsTechnica-HummingWhale),(Citation: CheckPoint-Judy),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky Triada June 2016),(Citation: Google Bread),(Citation: Google Security Zen),(Citation: Tripwire-MazarBOT),(Citation: WhiteOps TERRACOTTA),(Citation: Wandera-RedDrop),(Citation: Gooligan Citation),</t>
+    <t>(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CheckPoint Agent Smith),(Citation: Talos-WolfRAT),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec GoldenCup),(Citation: Zscaler TikTok Spyware),(Citation: Lookout FrozenCell),(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: ThreatFabric Ginp),(Citation: Sophos Red Alert 2.0),(Citation: WhiteOps TERRACOTTA),(Citation: Proofpoint-Marcher),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Cerberus),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-XcodeGhost),(Citation: Group IB Gustuff Mar 2019),(Citation: Cofense Anubis),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: PaloAlto-Xbot),(Citation: Lookout-Dendroid),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: CheckPoint Agent Smith),(Citation: Gooligan Citation),(Citation: Google Bread),(Citation: ArsTechnica-HummingBad),(Citation: ArsTechnica-HummingWhale),(Citation: CheckPoint-Judy),(Citation: Lookout-EnterpriseApps),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint SimBad 2019),(Citation: Kaspersky Triada June 2016),(Citation: Google Security Zen),(Citation: Tripwire-MazarBOT),(Citation: WhiteOps TERRACOTTA),(Citation: Google Triada June 2019),(Citation: Lookout-BrainTest),</t>
   </si>
   <si>
     <t>(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),</t>
@@ -2275,118 +2275,118 @@
     <t>(Citation: CitizenLab Circles),(Citation: CSRIC-WG1-FinalReport)</t>
   </si>
   <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender Mandrake),</t>
+    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
     <t>,(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
   </si>
   <si>
-    <t>(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: CheckPoint Cerberus),(Citation: ESET DEFENSOR ID),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: Talos Gustuff Apr 2019),</t>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Talos Gustuff Apr 2019),(Citation: Google Security Zen),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Riltok June 2019),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: Threat Fabric Cerberus),(Citation: FlexiSpy-Features),(Citation: BlackBerry Bahamut),(Citation: SecureList BusyGasper),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CrowdStrike-Android),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),(Citation: Google Project Zero Insomnia),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: Lookout eSurv),(Citation: Zscaler-SpyNote),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Pegasus),(Citation: Kaspersky-WUC),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: PaloAlto-SpyDealer),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-Skygofree),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: NYTimes-BackDoor),(Citation: Bitdefender - Triout 2018),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: WhiteOps TERRACOTTA),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: CheckPoint Cerberus),(Citation: SWB Exodus March 2019),(Citation: Volexity Insomnia),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: Lookout-BrainTest),(Citation: Trend Micro Bouncing Golf 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-WireLurker),(Citation: TrendMicro-Obad),(Citation: Cybereason FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader),(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: Check Point-Joker),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Bitdefender Mandrake),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: Google Bread),(Citation: Volexity Insomnia),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: Microsoft MalLockerB),(Citation: Palo Alto HenBox),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: securelist rotexy 2018),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Desert Scorpion),</t>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: Cofense Anubis),(Citation: Talos Gustuff Apr 2019),(Citation: FlexiSpy-Features),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: BlackBerry Bahamut),(Citation: SecureList BusyGasper),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler-SpyNote),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: CheckPoint-Charger),(Citation: NYTimes-BackDoor),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-WUC),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: Symantec GoldenCup),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cofense Anubis),(Citation: Lookout eSurv),(Citation: CrowdStrike-Android),(Citation: Palo Alto HenBox),(Citation: TrendMicro-RCSAndroid),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Lookout FrozenCell),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: FortiGuard-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint Cerberus),(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),(Citation: Volexity Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: ThreatFabric Ginp),(Citation: Securelist Asacub),(Citation: FortiGuard-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: Google Security Zen),(Citation: PaloAlto-WireLurker),(Citation: Lookout-Monokle),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint-Charger),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),(Citation: Cybereason FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Microsoft MalLockerB),(Citation: Check Point-Joker),(Citation: Bitdefender Mandrake),(Citation: Volexity Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader),(Citation: BlackBerry Bahamut),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-BrainTest),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-Obad),(Citation: Palo Alto HenBox),(Citation: securelist rotexy 2018),(Citation: Cybereason EventBot),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-WUC),(Citation: securelist rotexy 2018),(Citation: Lookout-StealthMango),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: SecurityIntelligence TrickMo),</t>
   </si>
   <si>
     <t>(Citation: TrendMicro-Obad),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Zimperium z9),(Citation: securelist rotexy 2018),</t>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: Talos-WolfRAT),(Citation: Zimperium z9),(Citation: Palo Alto HenBox),(Citation: securelist rotexy 2018),(Citation: Trend Micro Bouncing Golf 2019),</t>
   </si>
   <si>
     <t>(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
-    <t>(Citation: Kaspersky Triada March 2016),(Citation: Google Security Zen),(Citation: Google Triada June 2019),(Citation: Google Project Zero Insomnia),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Zscaler TikTok Spyware),(Citation: SecurityIntelligence TrickMo),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Securelist Asacub),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: Lookout Desert Scorpion),(Citation: ThreatFabric Ginp),(Citation: TrendMicro Coronavirus Updates),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Triada March 2016),(Citation: Cybereason FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList BusyGasper),(Citation: PaloAlto-Xbot),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: Threat Fabric Cerberus),(Citation: Google Bread),(Citation: Zscaler-SpyNote),(Citation: Zscaler-SuperMarioRun),(Citation: TrendMicro-RCSAndroid),(Citation: FlexiSpy-Features),(Citation: Lookout-Pegasus),(Citation: Kaspersky-WUC),(Citation: Talos GPlayed),(Citation: PaloAlto-SpyDealer),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: FireEye-RuMMS),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason EventBot),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: NYTimes-BackDoor),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Tripwire-MazarBOT),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: ESET DEFENSOR ID),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: Nightwatch screencap April 2016)</t>
+    <t>(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Security Zen),(Citation: Google Project Zero Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
+  </si>
+  <si>
+    <t>(Citation: ThreatFabric Ginp),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Cybereason FakeSpy),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: Lookout-StealthMango),(Citation: Lookout-Dendroid),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: ThreatFabric Ginp),(Citation: Zscaler-SpyNote),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Triada March 2016),(Citation: Talos Gustuff Apr 2019),(Citation: NYTimes-BackDoor),(Citation: Google Bread),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-WUC),(Citation: Cybereason FakeSpy),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Tripwire-MazarBOT),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Zscaler-SuperMarioRun),(Citation: Palo Alto HenBox),(Citation: securelist rotexy 2018),(Citation: FlexiSpy-Features),(Citation: Threat Fabric Exobot),(Citation: FireEye-RuMMS),(Citation: Cybereason EventBot),(Citation: TrendMicro-RCSAndroid),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-Xbot),(Citation: Lookout FrozenCell),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: Lookout-Dendroid),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: ThreatFabric Ginp),(Citation: Cofense Anubis),(Citation: Talos-WolfRAT),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: ESET DEFENSOR ID),(Citation: SecureList BusyGasper),(Citation: SecurityIntelligence TrickMo),(Citation: Nightwatch screencap April 2016)</t>
   </si>
   <si>
     <t>(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
   </si>
   <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Google Triada June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecurityIntelligence TrickMo),(Citation: ESET DEFENSOR ID),(Citation: Cybereason FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),(Citation: Google Project Zero Insomnia),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: FlexiSpy-Features),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),</t>
-  </si>
-  <si>
-    <t>,(Citation: Trend Micro iOS URL Hijacking),(Citation: IETF-PKCE),(Citation: Android App Links),(Citation: iOS Universal Links)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),</t>
+    <t>(Citation: ThreatFabric Ginp),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-Monokle),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Desert Scorpion),(Citation: Cybereason FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: Threat Fabric Cerberus),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: CheckPoint Agent Smith),(Citation: Palo Alto HenBox),(Citation: securelist rotexy 2018),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),(Citation: Google Triada June 2019),(Citation: ESET DEFENSOR ID),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),</t>
+  </si>
+  <si>
+    <t>,(Citation: iOS Universal Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: IETF-PKCE),(Citation: Android App Links)</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Pegasus),(Citation: FortiGuard-FlexiSpy),(Citation: Cybereason FakeSpy),(Citation: Lookout-StealthMango),(Citation: TrendMicro-RCSAndroid),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: Lookout FrozenCell),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),</t>
   </si>
   <si>
     <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint SimBad 2019),(Citation: Zscaler TikTok Spyware),(Citation: FortiGuard-FlexiSpy),(Citation: ThreatFabric Ginp),(Citation: CheckPoint Agent Smith),(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ESET-Twitoor),(Citation: Threat Fabric Cerberus),(Citation: FlexiSpy-Features),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: SecureList BusyGasper),(Citation: Group IB Gustuff Mar 2019),(Citation: Lookout Desert Scorpion),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: securelist rotexy 2018),(Citation: Cybereason EventBot),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-Dendroid),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: Palo Alto HenBox),(Citation: Trend Micro Anubis),(Citation: Cybereason FakeSpy),(Citation: WhiteOps TERRACOTTA),(Citation: BlackBerry Bahamut),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-Anserver2),(Citation: Trend Micro Bouncing Golf 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecurityIntelligence TrickMo),(Citation: Xiao-KeyRaider),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Wandera-RedDrop),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Bitdefender Mandrake),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: Lookout eSurv),(Citation: Lookout-Pegasus),(Citation: Kaspersky-WUC),(Citation: Talos GPlayed),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: FireEye-RuMMS),(Citation: Kaspersky Riltok June 2019),(Citation: TrendMicro Coronavirus Updates),(Citation: CheckPoint Cerberus),(Citation: Cybereason EventBot),(Citation: Palo Alto HenBox),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: PaloAlto-DualToy),(Citation: TrendMicro-Anserver2),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Wandera-RedDrop),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: PaloAlto-SpyDealer),(Citation: Lookout FrozenCell),(Citation: FireEye-RuMMS),(Citation: Kaspersky Riltok June 2019),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason EventBot),(Citation: Lookout-EnterpriseApps),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: Talos Gustuff Apr 2019),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: ThreatFabric Ginp),(Citation: CheckPoint Agent Smith),(Citation: FortiGuard-FlexiSpy),(Citation: CheckPoint SimBad 2019),(Citation: Bitdefender - Triout 2018),(Citation: Cybereason FakeSpy),(Citation: Group IB Gustuff Mar 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: FlexiSpy-Features),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: ESET-Twitoor),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Anubis),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Cybereason FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Dendroid),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Wandera-RedDrop),(Citation: Securelist Asacub),(Citation: Lookout-Monokle),(Citation: Lookout Desert Scorpion),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-WUC),(Citation: Cybereason FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: Kaspersky Riltok June 2019),(Citation: SecureList DVMap June 2017),(Citation: Symantec GoldenCup),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Xiao-KeyRaider),(Citation: Cofense Anubis),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: securelist rotexy 2018),(Citation: FireEye-RuMMS),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: CheckPoint Cerberus),(Citation: TrendMicro-Anserver2),(Citation: Lookout FrozenCell),(Citation: Lookout-Pegasus),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Wandera-RedDrop),(Citation: Securelist Asacub),(Citation: Lookout-Monokle),(Citation: WhiteOps TERRACOTTA),(Citation: PaloAlto-SpyDealer),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),(Citation: PaloAlto-DualToy),(Citation: Lookout-EnterpriseApps),(Citation: Cybereason FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: Google Project Zero Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: FireEye-RuMMS),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: TrendMicro-Anserver2),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Lookout-StealthMango),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason FakeSpy),(Citation: FlexiSpy-Features),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Lookout-Pegasus),</t>
+  </si>
+  <si>
+    <t>(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
     <t>,(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
     <t>(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: Symantec GoldenCup),(Citation: Lookout-Dendroid),(Citation: Zscaler-SuperMarioRun),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecurityIntelligence TrickMo),(Citation: ESET DEFENSOR ID),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: Wandera-RedDrop),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: Google Bread),(Citation: Volexity Insomnia),(Citation: Kaspersky-WUC),(Citation: Talos GPlayed),(Citation: FireEye-RuMMS),(Citation: Kaspersky Riltok June 2019),(Citation: TrendMicro Coronavirus Updates),(Citation: CheckPoint Cerberus),(Citation: Cybereason EventBot),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: Bitdefender - Triout 2018),(Citation: Kaspersky-MobileMalware),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+    <t>(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: Symantec GoldenCup),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SuperMarioRun),(Citation: Palo Alto HenBox),(Citation: TrendMicro-RCSAndroid),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Lookout-StealthMango),(Citation: Lookout-Dendroid),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: Securelist Asacub),(Citation: Bitdefender - Triout 2018),(Citation: Sophos Red Alert 2.0),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),(Citation: Kaspersky-WUC),(Citation: Cybereason FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Volexity Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-MobileMalware),(Citation: securelist rotexy 2018),(Citation: FireEye-RuMMS),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: CheckPoint Cerberus),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: ESET DEFENSOR ID),</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v11/docs/mobile-attack-v11.3/mobile-attack-v11.3-techniques.xlsx
+++ b/versions/v11/docs/mobile-attack-v11.3/mobile-attack-v11.3-techniques.xlsx
@@ -2143,7 +2143,7 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Check Point-Joker),(Citation: Bitdefender Mandrake),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Check Point-Joker),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
@@ -2155,115 +2155,115 @@
     <t>(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
-    <t>(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cofense Anubis),(Citation: Google Triada June 2019),(Citation: Securelist Asacub),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: Zscaler-SpyNote),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-EnterpriseApps),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader),(Citation: Symantec GoldenCup),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SuperMarioRun),(Citation: Cofense Anubis),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: TrendMicro-RCSAndroid),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Lookout FrozenCell),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: Lookout-Dendroid),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),</t>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Securelist Asacub),(Citation: Lookout FrozenCell),(Citation: Google Triada June 2019),(Citation: Symantec GoldenCup),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler-SpyNote),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: Lookout ViperRAT),(Citation: SecureList BusyGasper),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Lookout-EnterpriseApps),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: TrendMicro-RCSAndroid),(Citation: Bitdefender - Triout 2018),(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Cofense Anubis),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro-XLoader),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
     <t>(Citation: HackerNews-OldBoot),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: Talos GPlayed),(Citation: Lookout-PegasusAndroid),(Citation: FortiGuard-FlexiSpy),(Citation: CheckPoint SimBad 2019),(Citation: Palo Alto HenBox),(Citation: Cybereason FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Microsoft MalLockerB),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: ESET DEFENSOR ID),(Citation: SecurityIntelligence TrickMo),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: NYTimes-BackDoor),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-WUC),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SuperMarioRun),(Citation: Palo Alto HenBox),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-XcodeGhost),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),(Citation: SecureList DVMap June 2017),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+    <t>(Citation: CheckPoint SimBad 2019),(Citation: PaloAlto-SpyDealer),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: Palo Alto HenBox),(Citation: Zscaler-SpyNote),(Citation: Cybereason FakeSpy),(Citation: Talos GPlayed),(Citation: ESET DEFENSOR ID),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-PegasusAndroid),(Citation: FortiGuard-FlexiSpy),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-PegasusAndroid),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: Zscaler-SuperMarioRun),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: Lookout-PegasusAndroid),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-EnterpriseApps),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: Trend Micro Bouncing Golf 2019),(Citation: NYTimes-BackDoor),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-XcodeGhost),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: BlackBerry Bahamut),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Adware),(Citation: Lookout-Pegasus),(Citation: Lookout-BrainTest),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
-  </si>
-  <si>
-    <t>(Citation: HackerNews-Allwinner),(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Triada June 2019),(Citation: Lookout-StealthMango),(Citation: Krebs-Triada June 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: Zscaler-SpyNote),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-Monokle),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: CheckPoint-Charger),(Citation: Talos Gustuff Apr 2019),(Citation: NYTimes-BackDoor),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-WUC),(Citation: Cybereason FakeSpy),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-PegasusAndroid),(Citation: Cofense Anubis),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),</t>
-  </si>
-  <si>
-    <t>(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: Gooligan Citation),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Talos Gustuff Apr 2019),(Citation: Trend Micro Anubis),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: Symantec GoldenCup),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: FlexiSpy-Features),(Citation: TrendMicro-RCSAndroid),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Zscaler-SpyNote),(Citation: Lookout-StealthMango),(Citation: Lookout-Dendroid),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: Threat Fabric Exobot),(Citation: Proofpoint-Marcher),(Citation: TrendMicro-XLoader),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: Cofense Anubis),(Citation: Google Security Zen),(Citation: Bitdefender Mandrake),(Citation: SecureList DVMap June 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Anubis),(Citation: Google Bread),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: SecureList DVMap June 2017),(Citation: Symantec GoldenCup),(Citation: Threat Fabric Cerberus),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: CheckPoint-Judy),(Citation: Xiao-ZergHelper),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-BrainTest),(Citation: Google Triada June 2019),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: Cybereason EventBot),(Citation: TrendMicro-RCSAndroid),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Lookout FrozenCell),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),</t>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: Lookout-Adware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: Lookout-BrainTest),(Citation: Lookout-PegasusAndroid),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
+  </si>
+  <si>
+    <t>(Citation: HackerNews-Allwinner),(Citation: BankInfoSecurity-BackDoor),(Citation: Lookout-StealthMango),(Citation: Krebs-Triada June 2019),(Citation: Google Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: NYTimes-BackDoor),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Zscaler-SpyNote),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: ThreatFabric Ginp),(Citation: Lookout ViperRAT),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Exobot),(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: Lookout-EnterpriseApps),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos GPlayed),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: NYTimes-BackDoor),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: Palo Alto HenBox),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: Cofense Anubis),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint-Charger),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-Xbot),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Gooligan Citation),(Citation: Lookout-Monokle),(Citation: Zscaler-SpyNote),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: ThreatFabric Ginp),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-StealthMango),(Citation: Talos GPlayed),(Citation: FlexiSpy-Features),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Trend Micro Anubis),(Citation: TrendMicro-RCSAndroid),(Citation: Talos-WolfRAT),(Citation: Bitdefender - Triout 2018),(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Cofense Anubis),(Citation: Zscaler TikTok Spyware),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-Anserver),(Citation: Cofense Anubis),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Proofpoint-Marcher),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: TrendMicro-XLoader),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),(Citation: Google Bread),(Citation: Lookout-BrainTest),(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: SecureList BusyGasper),(Citation: SecureList DVMap June 2017),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: CheckPoint-Judy),(Citation: Google Triada June 2019),(Citation: PaloAlto-SpyDealer),(Citation: WhiteOps TERRACOTTA),(Citation: Google Security Zen),(Citation: Talos GPlayed),(Citation: Cybereason EventBot),(Citation: Trend Micro Anubis),(Citation: TrendMicro-RCSAndroid),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: Palo Alto HenBox),(Citation: Sophos Red Alert 2.0),(Citation: Xiao-ZergHelper),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),(Citation: PaloAlto-Xbot),</t>
+    <t>(Citation: CheckPoint-Charger),(Citation: PaloAlto-Xbot),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
     <t>,(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Triada June 2019),(Citation: Wandera-RedDrop),(Citation: Lookout eSurv),(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Adware),(Citation: Lookout-Pegasus),(Citation: CheckPoint Agent Smith),(Citation: Gooligan Citation),(Citation: ArsTechnica-HummingBad),(Citation: Google Security Zen),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: Volexity Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: SecureList DVMap June 2017),</t>
+    <t>(Citation: Wandera-RedDrop),(Citation: Lookout eSurv),(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Google Triada June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: SecureList DVMap June 2017),(Citation: Volexity Insomnia),(Citation: Gooligan Citation),(Citation: CheckPoint Agent Smith),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: Google Security Zen),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-Adware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Pegasus),(Citation: Lookout-BrainTest),(Citation: Lookout-PegasusAndroid),</t>
   </si>
   <si>
     <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
   </si>
   <si>
-    <t>(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CheckPoint Agent Smith),(Citation: Talos-WolfRAT),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec GoldenCup),(Citation: Zscaler TikTok Spyware),(Citation: Lookout FrozenCell),(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: Sophos Red Alert 2.0),(Citation: WhiteOps TERRACOTTA),(Citation: Proofpoint-Marcher),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Cerberus),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-XcodeGhost),(Citation: Group IB Gustuff Mar 2019),(Citation: Cofense Anubis),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: PaloAlto-Xbot),(Citation: Lookout-Dendroid),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: CheckPoint Agent Smith),(Citation: Gooligan Citation),(Citation: Google Bread),(Citation: ArsTechnica-HummingBad),(Citation: ArsTechnica-HummingWhale),(Citation: CheckPoint-Judy),(Citation: Lookout-EnterpriseApps),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint SimBad 2019),(Citation: Kaspersky Triada June 2016),(Citation: Google Security Zen),(Citation: Tripwire-MazarBOT),(Citation: WhiteOps TERRACOTTA),(Citation: Google Triada June 2019),(Citation: Lookout-BrainTest),</t>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: CheckPoint Agent Smith),(Citation: Bitdefender Mandrake),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos GPlayed),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: Proofpoint-Marcher),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Exobot),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: Cybereason EventBot),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Cerberus),(Citation: PaloAlto-Xbot),(Citation: Lookout-Dendroid),(Citation: securelist rotexy 2018),(Citation: Group IB Gustuff Mar 2019),(Citation: Cofense Anubis),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Zscaler TikTok Spyware),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: CheckPoint SimBad 2019),(Citation: Tripwire-MazarBOT),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Triada June 2016),(Citation: Gooligan Citation),(Citation: CheckPoint Agent Smith),(Citation: ArsTechnica-HummingWhale),(Citation: Google Security Zen),(Citation: CheckPoint-Judy),(Citation: ArsTechnica-HummingBad),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Triada June 2019),(Citation: Google Bread),(Citation: Lookout-BrainTest),(Citation: Lookout-EnterpriseApps),</t>
   </si>
   <si>
     <t>(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),</t>
@@ -2275,118 +2275,118 @@
     <t>(Citation: CitizenLab Circles),(Citation: CSRIC-WG1-FinalReport)</t>
   </si>
   <si>
-    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>,(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Talos Gustuff Apr 2019),(Citation: Google Security Zen),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Riltok June 2019),</t>
+    <t>(Citation: Wandera-RedDrop),(Citation: Bitdefender Mandrake),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>,(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: CheckPoint Cerberus),(Citation: Google Security Zen),(Citation: ESET DEFENSOR ID),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: ThreatFabric Ginp),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: Cofense Anubis),(Citation: Talos Gustuff Apr 2019),(Citation: FlexiSpy-Features),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: BlackBerry Bahamut),(Citation: SecureList BusyGasper),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler-SpyNote),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: CheckPoint-Charger),(Citation: NYTimes-BackDoor),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-WUC),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: Symantec GoldenCup),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cofense Anubis),(Citation: Lookout eSurv),(Citation: CrowdStrike-Android),(Citation: Palo Alto HenBox),(Citation: TrendMicro-RCSAndroid),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Lookout FrozenCell),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: FortiGuard-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint Cerberus),(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),(Citation: Volexity Insomnia),</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: Securelist Asacub),(Citation: FortiGuard-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: Google Security Zen),(Citation: PaloAlto-WireLurker),(Citation: Lookout-Monokle),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint-Charger),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),(Citation: Cybereason FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Microsoft MalLockerB),(Citation: Check Point-Joker),(Citation: Bitdefender Mandrake),(Citation: Volexity Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader),(Citation: BlackBerry Bahamut),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-BrainTest),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-Obad),(Citation: Palo Alto HenBox),(Citation: securelist rotexy 2018),(Citation: Cybereason EventBot),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-WUC),(Citation: securelist rotexy 2018),(Citation: Lookout-StealthMango),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-Obad),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: Talos-WolfRAT),(Citation: Zimperium z9),(Citation: Palo Alto HenBox),(Citation: securelist rotexy 2018),(Citation: Trend Micro Bouncing Golf 2019),</t>
+    <t>(Citation: SecureList BusyGasper),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),(Citation: Threat Fabric Exobot),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: Talos Gustuff Apr 2019),(Citation: BlackBerry Bahamut),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Zscaler-SpyNote),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: SecureList BusyGasper),(Citation: CrowdStrike-Android),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-EnterpriseApps),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos GPlayed),(Citation: Trend Micro Bouncing Golf 2019),(Citation: NYTimes-BackDoor),(Citation: TrendMicro-RCSAndroid),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender - Triout 2018),(Citation: Palo Alto HenBox),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Cofense Anubis),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CheckPoint-Charger),(Citation: Zscaler TikTok Spyware),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Securelist Asacub),(Citation: Google Bread),</t>
+  </si>
+  <si>
+    <t>(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: FortiGuard-FlexiSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: PaloAlto-WireLurker),(Citation: Lookout Uyghur Campaign),(Citation: Microsoft MalLockerB),(Citation: Google Bread),(Citation: Lookout-BrainTest),(Citation: ThreatFabric Ginp),(Citation: SecureList DVMap June 2017),(Citation: Volexity Insomnia),(Citation: Check Point-Joker),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: FortiGuard-FlexiSpy),(Citation: WhiteOps TERRACOTTA),(Citation: Google Security Zen),(Citation: Talos GPlayed),(Citation: Cybereason EventBot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: TrendMicro-Obad),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: Palo Alto HenBox),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CheckPoint-Charger),(Citation: Sophos Red Alert 2.0),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-XLoader),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: Kaspersky-Skygofree),(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-PegasusAndroid),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Obad),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: Palo Alto HenBox),(Citation: securelist rotexy 2018),(Citation: Zimperium z9),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),</t>
   </si>
   <si>
     <t>(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
-    <t>(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Security Zen),(Citation: Google Project Zero Insomnia),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Cybereason FakeSpy),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: Lookout-StealthMango),(Citation: Lookout-Dendroid),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: Zscaler-SpyNote),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Triada March 2016),(Citation: Talos Gustuff Apr 2019),(Citation: NYTimes-BackDoor),(Citation: Google Bread),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-WUC),(Citation: Cybereason FakeSpy),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Tripwire-MazarBOT),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Zscaler-SuperMarioRun),(Citation: Palo Alto HenBox),(Citation: securelist rotexy 2018),(Citation: FlexiSpy-Features),(Citation: Threat Fabric Exobot),(Citation: FireEye-RuMMS),(Citation: Cybereason EventBot),(Citation: TrendMicro-RCSAndroid),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-Xbot),(Citation: Lookout FrozenCell),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: Lookout-Dendroid),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: ThreatFabric Ginp),(Citation: Cofense Anubis),(Citation: Talos-WolfRAT),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: ESET DEFENSOR ID),(Citation: SecureList BusyGasper),(Citation: SecurityIntelligence TrickMo),(Citation: Nightwatch screencap April 2016)</t>
+    <t>(Citation: Google Triada June 2019),(Citation: Google Security Zen),(Citation: Kaspersky Triada March 2016),(Citation: Google Project Zero Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: ThreatFabric Ginp),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Exobot),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-StealthMango),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Dendroid),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Zscaler TikTok Spyware),(Citation: SecurityIntelligence TrickMo),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler-SpyNote),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky Riltok June 2019),(Citation: Google Bread),(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: ThreatFabric Ginp),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Exobot),(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Lookout-EnterpriseApps),(Citation: PaloAlto-SpyDealer),(Citation: Tripwire-MazarBOT),(Citation: Kaspersky Triada March 2016),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos GPlayed),(Citation: FlexiSpy-Features),(Citation: FireEye-RuMMS),(Citation: Cybereason EventBot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: NYTimes-BackDoor),(Citation: Talos-WolfRAT),(Citation: TrendMicro-RCSAndroid),(Citation: Threat Fabric Cerberus),(Citation: Palo Alto HenBox),(Citation: PaloAlto-Xbot),(Citation: Lookout-Dendroid),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Zscaler TikTok Spyware),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-XLoader),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),(Citation: ESET DEFENSOR ID),(Citation: Talos-WolfRAT),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-SpyDealer),(Citation: ThreatFabric Ginp),(Citation: Nightwatch screencap April 2016)</t>
   </si>
   <si>
     <t>(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
   </si>
   <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-Monokle),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Desert Scorpion),(Citation: Cybereason FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: Threat Fabric Cerberus),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: CheckPoint Agent Smith),(Citation: Palo Alto HenBox),(Citation: securelist rotexy 2018),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),(Citation: Google Triada June 2019),(Citation: ESET DEFENSOR ID),(Citation: Android Package Visibility)</t>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: ESET DEFENSOR ID),(Citation: Google Triada June 2019),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint Agent Smith),(Citation: Lookout-StealthMango),(Citation: Talos GPlayed),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: Palo Alto HenBox),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Cofense Anubis),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Zscaler TikTok Spyware),(Citation: SecurityIntelligence TrickMo),(Citation: Android Package Visibility)</t>
   </si>
   <si>
     <t>(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),</t>
   </si>
   <si>
-    <t>,(Citation: iOS Universal Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: IETF-PKCE),(Citation: Android App Links)</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Pegasus),(Citation: FortiGuard-FlexiSpy),(Citation: Cybereason FakeSpy),(Citation: Lookout-StealthMango),(Citation: TrendMicro-RCSAndroid),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: Lookout FrozenCell),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),</t>
-  </si>
-  <si>
-    <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: ThreatFabric Ginp),(Citation: CheckPoint Agent Smith),(Citation: FortiGuard-FlexiSpy),(Citation: CheckPoint SimBad 2019),(Citation: Bitdefender - Triout 2018),(Citation: Cybereason FakeSpy),(Citation: Group IB Gustuff Mar 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: FlexiSpy-Features),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: ESET-Twitoor),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Anubis),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Cybereason FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Dendroid),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Wandera-RedDrop),(Citation: Securelist Asacub),(Citation: Lookout-Monokle),(Citation: Lookout Desert Scorpion),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-WUC),(Citation: Cybereason FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: Kaspersky Riltok June 2019),(Citation: SecureList DVMap June 2017),(Citation: Symantec GoldenCup),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Xiao-KeyRaider),(Citation: Cofense Anubis),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: securelist rotexy 2018),(Citation: FireEye-RuMMS),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: CheckPoint Cerberus),(Citation: TrendMicro-Anserver2),(Citation: Lookout FrozenCell),(Citation: Lookout-Pegasus),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Wandera-RedDrop),(Citation: Securelist Asacub),(Citation: Lookout-Monokle),(Citation: WhiteOps TERRACOTTA),(Citation: PaloAlto-SpyDealer),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),(Citation: PaloAlto-DualToy),(Citation: Lookout-EnterpriseApps),(Citation: Cybereason FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: Google Project Zero Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: FireEye-RuMMS),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: TrendMicro-Anserver2),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Lookout-StealthMango),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason FakeSpy),(Citation: FlexiSpy-Features),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Lookout-Pegasus),</t>
-  </si>
-  <si>
-    <t>(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
+    <t>,(Citation: Trend Micro iOS URL Hijacking),(Citation: IETF-PKCE),(Citation: Android App Links),(Citation: iOS Universal Links)</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Lookout-StealthMango),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Pegasus),(Citation: Lookout FrozenCell),(Citation: Lookout-PegasusAndroid),(Citation: FortiGuard-FlexiSpy),</t>
+  </si>
+  <si>
+    <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint SimBad 2019),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender - Triout 2018),(Citation: CheckPoint Agent Smith),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: ESET-Twitoor),(Citation: Cybereason FakeSpy),(Citation: Group IB Gustuff Mar 2019),(Citation: securelist rotexy 2018),(Citation: FlexiSpy-Features),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: FortiGuard-FlexiSpy),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: ThreatFabric Ginp),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: BlackBerry Bahamut),(Citation: SecurityIntelligence TrickMo),(Citation: Trend Micro Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky Riltok June 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Exobot),(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: CheckPoint Cerberus),(Citation: Talos GPlayed),(Citation: FireEye-RuMMS),(Citation: Cybereason EventBot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: Threat Fabric Cerberus),(Citation: Palo Alto HenBox),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver2),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Xiao-KeyRaider),(Citation: Zscaler TikTok Spyware),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky Riltok June 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Google Bread),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Exobot),(Citation: Lookout FrozenCell),(Citation: Lookout-EnterpriseApps),(Citation: PaloAlto-SpyDealer),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-StealthMango),(Citation: Talos GPlayed),(Citation: FireEye-RuMMS),(Citation: Cybereason EventBot),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: Talos-WolfRAT),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: TrendMicro-Anserver2),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-DualToy),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: FlexiSpy-Features),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Pegasus),(Citation: Lookout ViperRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
     <t>,(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),</t>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: CYBERWARCON CHEMISTGAMES),</t>
   </si>
   <si>
     <t>(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: Symantec GoldenCup),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SuperMarioRun),(Citation: Palo Alto HenBox),(Citation: TrendMicro-RCSAndroid),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Lookout-StealthMango),(Citation: Lookout-Dendroid),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: Securelist Asacub),(Citation: Bitdefender - Triout 2018),(Citation: Sophos Red Alert 2.0),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),(Citation: Kaspersky-WUC),(Citation: Cybereason FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Volexity Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-MobileMalware),(Citation: securelist rotexy 2018),(Citation: FireEye-RuMMS),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: CheckPoint Cerberus),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: ESET DEFENSOR ID),</t>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: Lookout ViperRAT),(Citation: SecureList BusyGasper),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: BlackBerry Bahamut),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: TrendMicro-RCSAndroid),(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler TikTok Spyware),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Wandera-RedDrop),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky Riltok June 2019),(Citation: Google Bread),(Citation: Symantec GoldenCup),(Citation: Volexity Insomnia),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: ESET DEFENSOR ID),(Citation: Threat Fabric Exobot),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: CheckPoint Cerberus),(Citation: Talos GPlayed),(Citation: FireEye-RuMMS),(Citation: Cybereason EventBot),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: Bitdefender - Triout 2018),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-MobileMalware),(Citation: SecurityIntelligence TrickMo),</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v11/docs/mobile-attack-v11.3/mobile-attack-v11.3-techniques.xlsx
+++ b/versions/v11/docs/mobile-attack-v11.3/mobile-attack-v11.3-techniques.xlsx
@@ -2143,7 +2143,7 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: Check Point-Joker),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos-WolfRAT),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: Bitdefender Mandrake),(Citation: TrendMicro Coronavirus Updates),(Citation: Check Point-Joker),(Citation: Talos-WolfRAT),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
@@ -2155,118 +2155,118 @@
     <t>(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Securelist Asacub),(Citation: Lookout FrozenCell),(Citation: Google Triada June 2019),(Citation: Symantec GoldenCup),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler-SpyNote),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: Lookout ViperRAT),(Citation: SecureList BusyGasper),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Lookout-EnterpriseApps),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: TrendMicro-RCSAndroid),(Citation: Bitdefender - Triout 2018),(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Cofense Anubis),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro-XLoader),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),</t>
+    <t>(Citation: Google Triada June 2019),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),(Citation: Trend Micro Bouncing Golf 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-Skygofree),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: Lookout-Dendroid),(Citation: Palo Alto HenBox),(Citation: TrendMicro-XLoader),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout ViperRAT),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: BlackBerry Bahamut),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SpyNote),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: Wandera-RedDrop),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
   </si>
   <si>
     <t>(Citation: HackerNews-OldBoot),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint SimBad 2019),(Citation: PaloAlto-SpyDealer),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: Palo Alto HenBox),(Citation: Zscaler-SpyNote),(Citation: Cybereason FakeSpy),(Citation: Talos GPlayed),(Citation: ESET DEFENSOR ID),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-PegasusAndroid),(Citation: FortiGuard-FlexiSpy),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-PegasusAndroid),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Monokle),(Citation: Zscaler-SuperMarioRun),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: Lookout-PegasusAndroid),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-EnterpriseApps),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: Trend Micro Bouncing Golf 2019),(Citation: NYTimes-BackDoor),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-XcodeGhost),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: BlackBerry Bahamut),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SpyNote),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Exobot),(Citation: Microsoft MalLockerB),(Citation: WhiteOps TERRACOTTA),(Citation: FortiGuard-FlexiSpy),(Citation: Cybereason FakeSpy),(Citation: Palo Alto HenBox),(Citation: ESET DEFENSOR ID),(Citation: CheckPoint SimBad 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout ViperRAT),(Citation: Google Project Zero Insomnia),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-WUC),(Citation: NYTimes-BackDoor),(Citation: PaloAlto-SpyDealer),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-XcodeGhost),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: BlackBerry Bahamut),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: Lookout-Adware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: Lookout-BrainTest),(Citation: Lookout-PegasusAndroid),</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Lookout-BrainTest),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Lookout-Adware),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-PegasusAndroid),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
   </si>
   <si>
-    <t>(Citation: HackerNews-Allwinner),(Citation: BankInfoSecurity-BackDoor),(Citation: Lookout-StealthMango),(Citation: Krebs-Triada June 2019),(Citation: Google Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: NYTimes-BackDoor),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Zscaler-SpyNote),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: ThreatFabric Ginp),(Citation: Lookout ViperRAT),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Exobot),(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: Lookout-EnterpriseApps),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos GPlayed),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: NYTimes-BackDoor),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: Palo Alto HenBox),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: Cofense Anubis),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint-Charger),(Citation: Zscaler TikTok Spyware),</t>
+    <t>(Citation: HackerNews-Allwinner),(Citation: BankInfoSecurity-BackDoor),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: NYTimes-BackDoor),(Citation: Google Triada June 2019),(Citation: Lookout-StealthMango),(Citation: Krebs-Triada June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: CyberMerchants-FlexiSpy),(Citation: Threat Fabric Exobot),(Citation: CheckPoint-Charger),(Citation: Lookout-EnterpriseApps),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: Bitdefender Mandrake),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist rotexy 2018),(Citation: Lookout ViperRAT),(Citation: Google Project Zero Insomnia),(Citation: Sophos Red Alert 2.0),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: ThreatFabric Ginp),(Citation: BlackBerry Bahamut),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: Talos GPlayed),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SpyNote),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky-WUC),(Citation: NYTimes-BackDoor),(Citation: PaloAlto-SpyDealer),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-Xbot),(Citation: Cofense Anubis),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Gooligan Citation),(Citation: Lookout-Monokle),(Citation: Zscaler-SpyNote),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: ThreatFabric Ginp),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-StealthMango),(Citation: Talos GPlayed),(Citation: FlexiSpy-Features),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Trend Micro Anubis),(Citation: TrendMicro-RCSAndroid),(Citation: Talos-WolfRAT),(Citation: Bitdefender - Triout 2018),(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Cofense Anubis),(Citation: Zscaler TikTok Spyware),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-Anserver),(Citation: Cofense Anubis),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Proofpoint-Marcher),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: TrendMicro-XLoader),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),(Citation: Google Bread),(Citation: Lookout-BrainTest),(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: SecureList BusyGasper),(Citation: SecureList DVMap June 2017),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: CheckPoint-Judy),(Citation: Google Triada June 2019),(Citation: PaloAlto-SpyDealer),(Citation: WhiteOps TERRACOTTA),(Citation: Google Security Zen),(Citation: Talos GPlayed),(Citation: Cybereason EventBot),(Citation: Trend Micro Anubis),(Citation: TrendMicro-RCSAndroid),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: Palo Alto HenBox),(Citation: Sophos Red Alert 2.0),(Citation: Xiao-ZergHelper),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: FlexiSpy-Features),(Citation: TrendMicro-RCSAndroid),(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-Dendroid),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Trend Micro Anubis),(Citation: Lookout ViperRAT),(Citation: Gooligan Citation),(Citation: Google Project Zero Insomnia),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: ThreatFabric Ginp),(Citation: BlackBerry Bahamut),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SpyNote),(Citation: Lookout Desert Scorpion),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos GPlayed),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: Threat Fabric Exobot),(Citation: Proofpoint-Marcher),(Citation: TrendMicro-XLoader),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: Google Security Zen),(Citation: Cofense Anubis),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Threat Fabric Cerberus),(Citation: Lookout-BrainTest),(Citation: Kaspersky-Skygofree),(Citation: Google Triada June 2019),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Trend Micro Anubis),(Citation: Lookout ViperRAT),(Citation: Sophos Red Alert 2.0),(Citation: Xiao-ZergHelper),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: SecureList DVMap June 2017),(Citation: Symantec GoldenCup),(Citation: BlackBerry Bahamut),(Citation: Google Security Zen),(Citation: Cybereason EventBot),(Citation: Talos GPlayed),(Citation: CheckPoint-Judy),(Citation: Lookout Desert Scorpion),(Citation: WhiteOps TERRACOTTA),(Citation: Google Bread),(Citation: PaloAlto-SpyDealer),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),(Citation: Volexity Insomnia),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint-Charger),(Citation: PaloAlto-Xbot),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),</t>
+    <t>(Citation: Threat Fabric Exobot),(Citation: CheckPoint-Charger),(Citation: PaloAlto-Xbot),(Citation: Talos GPlayed),</t>
   </si>
   <si>
     <t>,(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: Lookout eSurv),(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Google Triada June 2019),</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Triada June 2019),(Citation: Wandera-RedDrop),</t>
   </si>
   <si>
     <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: SecureList DVMap June 2017),(Citation: Volexity Insomnia),(Citation: Gooligan Citation),(Citation: CheckPoint Agent Smith),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: Google Security Zen),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-Adware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Pegasus),(Citation: Lookout-BrainTest),(Citation: Lookout-PegasusAndroid),</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint Agent Smith),(Citation: Gooligan Citation),(Citation: Google Security Zen),(Citation: Volexity Insomnia),(Citation: Lookout-BrainTest),(Citation: Lookout Dark Caracal Jan 2018),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-Pegasus),(Citation: Lookout-Adware),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: SecureList DVMap June 2017),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-PegasusAndroid),</t>
   </si>
   <si>
     <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: CheckPoint Agent Smith),(Citation: Bitdefender Mandrake),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos GPlayed),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: Proofpoint-Marcher),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Exobot),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: Cybereason EventBot),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Cerberus),(Citation: PaloAlto-Xbot),(Citation: Lookout-Dendroid),(Citation: securelist rotexy 2018),(Citation: Group IB Gustuff Mar 2019),(Citation: Cofense Anubis),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Zscaler TikTok Spyware),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: CheckPoint SimBad 2019),(Citation: Tripwire-MazarBOT),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Triada June 2016),(Citation: Gooligan Citation),(Citation: CheckPoint Agent Smith),(Citation: ArsTechnica-HummingWhale),(Citation: Google Security Zen),(Citation: CheckPoint-Judy),(Citation: ArsTechnica-HummingBad),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Triada June 2019),(Citation: Google Bread),(Citation: Lookout-BrainTest),(Citation: Lookout-EnterpriseApps),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint Agent Smith),(Citation: Talos GPlayed),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: BlackBerry Bahamut),(Citation: Symantec GoldenCup),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: Threat Fabric Exobot),(Citation: Kaspersky Riltok June 2019),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-Xbot),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Dendroid),(Citation: Proofpoint-Marcher),(Citation: PaloAlto-XcodeGhost),(Citation: securelist rotexy 2018),(Citation: Sophos Red Alert 2.0),(Citation: Talos Gustuff Apr 2019),(Citation: ThreatFabric Ginp),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: Talos GPlayed),(Citation: Group IB Gustuff Mar 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Triada June 2019),(Citation: CheckPoint Agent Smith),(Citation: Gooligan Citation),(Citation: CheckPoint-Judy),(Citation: ArsTechnica-HummingWhale),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingBad),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Triada June 2016),(Citation: Lookout-EnterpriseApps),(Citation: Google Bread),(Citation: CheckPoint SimBad 2019),(Citation: Google Security Zen),(Citation: Tripwire-MazarBOT),(Citation: Wandera-RedDrop),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),</t>
   </si>
   <si>
     <t>,(Citation: Android-VerifiedBoot)</t>
@@ -2275,118 +2275,118 @@
     <t>(Citation: CitizenLab Circles),(Citation: CSRIC-WG1-FinalReport)</t>
   </si>
   <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: Bitdefender Mandrake),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),</t>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: Wandera-RedDrop),</t>
   </si>
   <si>
     <t>,(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
   </si>
   <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: CheckPoint Cerberus),(Citation: Google Security Zen),(Citation: ESET DEFENSOR ID),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: ThreatFabric Ginp),</t>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: Talos Gustuff Apr 2019),(Citation: CheckPoint Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: ThreatFabric Ginp),(Citation: Kaspersky Riltok June 2019),(Citation: ESET DEFENSOR ID),(Citation: Google Security Zen),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),(Citation: Threat Fabric Exobot),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: Talos Gustuff Apr 2019),(Citation: BlackBerry Bahamut),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Zscaler-SpyNote),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: SecureList BusyGasper),(Citation: CrowdStrike-Android),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-EnterpriseApps),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos GPlayed),(Citation: Trend Micro Bouncing Golf 2019),(Citation: NYTimes-BackDoor),(Citation: TrendMicro-RCSAndroid),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender - Triout 2018),(Citation: Palo Alto HenBox),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Cofense Anubis),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CheckPoint-Charger),(Citation: Zscaler TikTok Spyware),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Securelist Asacub),(Citation: Google Bread),</t>
-  </si>
-  <si>
-    <t>(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: FortiGuard-FlexiSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Monokle),(Citation: PaloAlto-WireLurker),(Citation: Lookout Uyghur Campaign),(Citation: Microsoft MalLockerB),(Citation: Google Bread),(Citation: Lookout-BrainTest),(Citation: ThreatFabric Ginp),(Citation: SecureList DVMap June 2017),(Citation: Volexity Insomnia),(Citation: Check Point-Joker),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: FortiGuard-FlexiSpy),(Citation: WhiteOps TERRACOTTA),(Citation: Google Security Zen),(Citation: Talos GPlayed),(Citation: Cybereason EventBot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: TrendMicro-Obad),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: Palo Alto HenBox),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CheckPoint-Charger),(Citation: Sophos Red Alert 2.0),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-XLoader),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: Kaspersky-Skygofree),(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-PegasusAndroid),</t>
+    <t>(Citation: SecureList BusyGasper),(Citation: Threat Fabric Cerberus),(Citation: FlexiSpy-Features),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Lookout-Monokle),(Citation: BlackBerry Bahamut),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Threat Fabric Cerberus),(Citation: CyberMerchants-FlexiSpy),(Citation: CheckPoint-Charger),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: Lookout-StealthMango),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout ViperRAT),(Citation: CrowdStrike-Android),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: BlackBerry Bahamut),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SpyNote),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky-WUC),(Citation: NYTimes-BackDoor),(Citation: PaloAlto-SpyDealer),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Google Bread),</t>
+  </si>
+  <si>
+    <t>(Citation: Volexity Insomnia),(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint Cerberus),(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Lookout-BrainTest),(Citation: TrendMicro-Obad),(Citation: CheckPoint-Charger),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: Talos-WolfRAT),(Citation: Volexity Insomnia),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: FortiGuard-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: TrendMicro-XLoader),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist rotexy 2018),(Citation: PaloAlto-WireLurker),(Citation: Check Point-Joker),(Citation: Sophos Red Alert 2.0),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),(Citation: SecureList DVMap June 2017),(Citation: BlackBerry Bahamut),(Citation: Google Security Zen),(Citation: Cybereason EventBot),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: Microsoft MalLockerB),(Citation: WhiteOps TERRACOTTA),(Citation: Google Bread),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Lookout-StealthMango),(Citation: TrendMicro-RCSAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Kaspersky-WUC),(Citation: Kaspersky-Skygofree),(Citation: PaloAlto-SpyDealer),(Citation: securelist rotexy 2018),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),</t>
   </si>
   <si>
     <t>(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Obad),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: Palo Alto HenBox),(Citation: securelist rotexy 2018),(Citation: Zimperium z9),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),</t>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: Zimperium z9),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),</t>
   </si>
   <si>
     <t>(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
-    <t>(Citation: Google Triada June 2019),(Citation: Google Security Zen),(Citation: Kaspersky Triada March 2016),(Citation: Google Project Zero Insomnia),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: ThreatFabric Ginp),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Exobot),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-StealthMango),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Dendroid),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Zscaler TikTok Spyware),(Citation: SecurityIntelligence TrickMo),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler-SpyNote),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky Riltok June 2019),(Citation: Google Bread),(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: ThreatFabric Ginp),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Exobot),(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Lookout-EnterpriseApps),(Citation: PaloAlto-SpyDealer),(Citation: Tripwire-MazarBOT),(Citation: Kaspersky Triada March 2016),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos GPlayed),(Citation: FlexiSpy-Features),(Citation: FireEye-RuMMS),(Citation: Cybereason EventBot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: NYTimes-BackDoor),(Citation: Talos-WolfRAT),(Citation: TrendMicro-RCSAndroid),(Citation: Threat Fabric Cerberus),(Citation: Palo Alto HenBox),(Citation: PaloAlto-Xbot),(Citation: Lookout-Dendroid),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Zscaler TikTok Spyware),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-XLoader),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),(Citation: ESET DEFENSOR ID),(Citation: Talos-WolfRAT),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-SpyDealer),(Citation: ThreatFabric Ginp),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky Riltok June 2019),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: ESET DEFENSOR ID),(Citation: Google Triada June 2019),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint Agent Smith),(Citation: Lookout-StealthMango),(Citation: Talos GPlayed),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: Palo Alto HenBox),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Cofense Anubis),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Zscaler TikTok Spyware),(Citation: SecurityIntelligence TrickMo),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),</t>
-  </si>
-  <si>
-    <t>,(Citation: Trend Micro iOS URL Hijacking),(Citation: IETF-PKCE),(Citation: Android App Links),(Citation: iOS Universal Links)</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Lookout-StealthMango),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Pegasus),(Citation: Lookout FrozenCell),(Citation: Lookout-PegasusAndroid),(Citation: FortiGuard-FlexiSpy),</t>
+    <t>(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Project Zero Insomnia),(Citation: Google Security Zen),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Threat Fabric Cerberus),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: Lookout-Dendroid),(Citation: securelist rotexy 2018),(Citation: Sophos Red Alert 2.0),(Citation: ThreatFabric Ginp),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),(Citation: WhiteOps TERRACOTTA),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Threat Fabric Cerberus),(Citation: CyberMerchants-FlexiSpy),(Citation: Threat Fabric Exobot),(Citation: Lookout-EnterpriseApps),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Bitdefender Mandrake),(Citation: Lookout-StealthMango),(Citation: PaloAlto-Xbot),(Citation: SecurityIntelligence TrickMo),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: FireEye-RuMMS),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FlexiSpy-Features),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Dendroid),(Citation: Palo Alto HenBox),(Citation: TrendMicro-XLoader),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist rotexy 2018),(Citation: Lookout ViperRAT),(Citation: Google Project Zero Insomnia),(Citation: Sophos Red Alert 2.0),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: ThreatFabric Ginp),(Citation: BlackBerry Bahamut),(Citation: Symantec GoldenCup),(Citation: Tripwire-MazarBOT),(Citation: Cybereason EventBot),(Citation: Talos GPlayed),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SpyNote),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky-WUC),(Citation: Google Bread),(Citation: NYTimes-BackDoor),(Citation: PaloAlto-SpyDealer),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: PaloAlto-SpyDealer),(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: ThreatFabric Ginp),(Citation: Talos-WolfRAT),(Citation: ESET DEFENSOR ID),(Citation: Cofense Anubis),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: Google Triada June 2019),(Citation: Bitdefender Mandrake),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: FlexiSpy-Features),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist rotexy 2018),(Citation: Google Project Zero Insomnia),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: ThreatFabric Ginp),(Citation: ESET DEFENSOR ID),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason EventBot),(Citation: CheckPoint Agent Smith),(Citation: Talos GPlayed),(Citation: Lookout Desert Scorpion),(Citation: WhiteOps TERRACOTTA),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),</t>
+  </si>
+  <si>
+    <t>,(Citation: Android App Links),(Citation: iOS Universal Links),(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: FortiGuard-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: PaloAlto-SpyDealer),(Citation: Bitdefender Mandrake),(Citation: Lookout-PegasusAndroid),</t>
   </si>
   <si>
     <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint SimBad 2019),(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender - Triout 2018),(Citation: CheckPoint Agent Smith),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: ESET-Twitoor),(Citation: Cybereason FakeSpy),(Citation: Group IB Gustuff Mar 2019),(Citation: securelist rotexy 2018),(Citation: FlexiSpy-Features),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: FortiGuard-FlexiSpy),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: ThreatFabric Ginp),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: BlackBerry Bahamut),(Citation: SecurityIntelligence TrickMo),(Citation: Trend Micro Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky Riltok June 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: Lookout ViperRAT),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Exobot),(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: CheckPoint Cerberus),(Citation: Talos GPlayed),(Citation: FireEye-RuMMS),(Citation: Cybereason EventBot),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: Threat Fabric Cerberus),(Citation: Palo Alto HenBox),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver2),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Xiao-KeyRaider),(Citation: Zscaler TikTok Spyware),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky Riltok June 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Google Bread),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: Lookout ViperRAT),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Exobot),(Citation: Lookout FrozenCell),(Citation: Lookout-EnterpriseApps),(Citation: PaloAlto-SpyDealer),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-StealthMango),(Citation: Talos GPlayed),(Citation: FireEye-RuMMS),(Citation: Cybereason EventBot),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: Talos-WolfRAT),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: TrendMicro-Anserver2),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-DualToy),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: FlexiSpy-Features),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Pegasus),(Citation: Lookout ViperRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: CheckPoint Agent Smith),(Citation: Threat Fabric Cerberus),(Citation: Zscaler TikTok Spyware),(Citation: ESET-Twitoor),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: securelist rotexy 2018),(Citation: FlexiSpy-Features),(Citation: Lookout Desert Scorpion),(Citation: Group IB Gustuff Mar 2019),(Citation: Bitdefender - Triout 2018),(Citation: FortiGuard-FlexiSpy),(Citation: Cybereason FakeSpy),(Citation: ThreatFabric Ginp),(Citation: CheckPoint SimBad 2019),(Citation: Bitdefender Mandrake),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: securelist rotexy 2018),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: Cybereason FakeSpy),(Citation: ThreatFabric Ginp),(Citation: Palo Alto HenBox),(Citation: BlackBerry Bahamut),(Citation: Talos-WolfRAT),(Citation: Trend Micro Anubis),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: Zscaler TikTok Spyware),(Citation: FireEye-RuMMS),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Xiao-KeyRaider),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist rotexy 2018),(Citation: Lookout ViperRAT),(Citation: Google Project Zero Insomnia),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: SecureList DVMap June 2017),(Citation: BlackBerry Bahamut),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver2),(Citation: Symantec GoldenCup),(Citation: Cybereason EventBot),(Citation: Talos GPlayed),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: CheckPoint Cerberus),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Kaspersky-WUC),(Citation: Wandera-RedDrop),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Exobot),(Citation: Lookout-EnterpriseApps),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Talos-WolfRAT),(Citation: PaloAlto-SpyDealer),(Citation: FireEye-RuMMS),(Citation: securelist rotexy 2018),(Citation: Lookout ViperRAT),(Citation: Google Project Zero Insomnia),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: TrendMicro-Anserver2),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason EventBot),(Citation: Talos GPlayed),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: WhiteOps TERRACOTTA),(Citation: Google Bread),(Citation: PaloAlto-DualToy),(Citation: Wandera-RedDrop),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: FlexiSpy-Features),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
     <t>,(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),</t>
   </si>
   <si>
     <t>(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: Lookout ViperRAT),(Citation: SecureList BusyGasper),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: BlackBerry Bahamut),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: TrendMicro-RCSAndroid),(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler TikTok Spyware),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: Kaspersky-WUC),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky Riltok June 2019),(Citation: Google Bread),(Citation: Symantec GoldenCup),(Citation: Volexity Insomnia),(Citation: Kaspersky-Skygofree),(Citation: SWB Exodus March 2019),(Citation: ESET DEFENSOR ID),(Citation: Threat Fabric Exobot),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: CheckPoint Cerberus),(Citation: Talos GPlayed),(Citation: FireEye-RuMMS),(Citation: Cybereason EventBot),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: Bitdefender - Triout 2018),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList - ViceLeaker 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-MobileMalware),(Citation: SecurityIntelligence TrickMo),</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Dendroid),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout ViperRAT),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: BlackBerry Bahamut),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-MobileMalware),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: Kaspersky-Skygofree),(Citation: SecurityIntelligence TrickMo),(Citation: Volexity Insomnia),(Citation: FireEye-RuMMS),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: securelist rotexy 2018),(Citation: Sophos Red Alert 2.0),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos Gustuff Apr 2019),(Citation: SWB Exodus March 2019),(Citation: ESET DEFENSOR ID),(Citation: Symantec GoldenCup),(Citation: Cybereason EventBot),(Citation: Talos GPlayed),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: CheckPoint Cerberus),(Citation: Kaspersky-WUC),(Citation: Google Bread),(Citation: Wandera-RedDrop),</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v11/docs/mobile-attack-v11.3/mobile-attack-v11.3-techniques.xlsx
+++ b/versions/v11/docs/mobile-attack-v11.3/mobile-attack-v11.3-techniques.xlsx
@@ -2143,7 +2143,7 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: TrendMicro Coronavirus Updates),(Citation: Check Point-Joker),(Citation: Talos-WolfRAT),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: Check Point-Joker),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Bitdefender Mandrake),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
@@ -2155,76 +2155,76 @@
     <t>(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
-    <t>(Citation: Google Triada June 2019),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),(Citation: Trend Micro Bouncing Golf 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-Skygofree),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: Lookout-Dendroid),(Citation: Palo Alto HenBox),(Citation: TrendMicro-XLoader),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout ViperRAT),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: BlackBerry Bahamut),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SpyNote),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: Wandera-RedDrop),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
+    <t>(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SWB Exodus March 2019),(Citation: Google Triada June 2019),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler-SuperMarioRun),(Citation: Symantec GoldenCup),(Citation: Lookout-Pegasus),(Citation: CyberMerchants-FlexiSpy),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-Skygofree),(Citation: Wandera-RedDrop),(Citation: Zscaler-SpyNote),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: BlackBerry Bahamut),(Citation: Bitdefender - Triout 2018),(Citation: Cofense Anubis),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Lookout eSurv),(Citation: PaloAlto-SpyDealer),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-RCSAndroid),(Citation: TrendMicro-XLoader),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Dendroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
     <t>(Citation: HackerNews-OldBoot),</t>
   </si>
   <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SpyNote),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Exobot),(Citation: Microsoft MalLockerB),(Citation: WhiteOps TERRACOTTA),(Citation: FortiGuard-FlexiSpy),(Citation: Cybereason FakeSpy),(Citation: Palo Alto HenBox),(Citation: ESET DEFENSOR ID),(Citation: CheckPoint SimBad 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout ViperRAT),(Citation: Google Project Zero Insomnia),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-WUC),(Citation: NYTimes-BackDoor),(Citation: PaloAlto-SpyDealer),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-XcodeGhost),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: BlackBerry Bahamut),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+    <t>(Citation: Cybereason EventBot),(Citation: ESET DEFENSOR ID),(Citation: PaloAlto-SpyDealer),(Citation: WhiteOps TERRACOTTA),(Citation: Microsoft MalLockerB),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecurityIntelligence TrickMo),(Citation: Zscaler TikTok Spyware),(Citation: FortiGuard-FlexiSpy),(Citation: Talos GPlayed),(Citation: Lookout-PegasusAndroid),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Zscaler-SpyNote),(Citation: CheckPoint SimBad 2019),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: CyberMerchants-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-WUC),(Citation: NYTimes-BackDoor),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: Google Project Zero Insomnia),(Citation: Lookout-EnterpriseApps),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Lookout-BrainTest),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Lookout-Adware),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-PegasusAndroid),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
-  </si>
-  <si>
-    <t>(Citation: HackerNews-Allwinner),(Citation: BankInfoSecurity-BackDoor),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: NYTimes-BackDoor),(Citation: Google Triada June 2019),(Citation: Lookout-StealthMango),(Citation: Krebs-Triada June 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: CyberMerchants-FlexiSpy),(Citation: Threat Fabric Exobot),(Citation: CheckPoint-Charger),(Citation: Lookout-EnterpriseApps),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: Bitdefender Mandrake),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist rotexy 2018),(Citation: Lookout ViperRAT),(Citation: Google Project Zero Insomnia),(Citation: Sophos Red Alert 2.0),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: ThreatFabric Ginp),(Citation: BlackBerry Bahamut),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: Talos GPlayed),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SpyNote),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky-WUC),(Citation: NYTimes-BackDoor),(Citation: PaloAlto-SpyDealer),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: FlexiSpy-Features),(Citation: TrendMicro-RCSAndroid),(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-Dendroid),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Trend Micro Anubis),(Citation: Lookout ViperRAT),(Citation: Gooligan Citation),(Citation: Google Project Zero Insomnia),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: ThreatFabric Ginp),(Citation: BlackBerry Bahamut),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SpyNote),(Citation: Lookout Desert Scorpion),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: Threat Fabric Exobot),(Citation: Proofpoint-Marcher),(Citation: TrendMicro-XLoader),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: Google Security Zen),(Citation: Cofense Anubis),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),</t>
+    <t>(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-Adware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
+  </si>
+  <si>
+    <t>(Citation: BankInfoSecurity-BackDoor),(Citation: Google Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: HackerNews-Allwinner),(Citation: Krebs-Triada June 2019),(Citation: NYTimes-BackDoor),(Citation: Lookout-StealthMango),</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec GoldenCup),(Citation: Lookout-Pegasus),(Citation: CyberMerchants-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-WUC),(Citation: NYTimes-BackDoor),(Citation: CheckPoint-Charger),(Citation: Zscaler-SpyNote),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: BlackBerry Bahamut),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: Cofense Anubis),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout eSurv),(Citation: PaloAlto-SpyDealer),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Google Project Zero Insomnia),(Citation: securelist rotexy 2018),(Citation: Lookout-EnterpriseApps),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky Riltok June 2019),(Citation: Bitdefender Mandrake),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec GoldenCup),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SpyNote),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout FrozenCell),(Citation: FlexiSpy-Features),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Gooligan Citation),(Citation: BlackBerry Bahamut),(Citation: Palo Alto HenBox),(Citation: Bitdefender - Triout 2018),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: Lookout-StealthMango),(Citation: Lookout eSurv),(Citation: Talos Gustuff Apr 2019),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Anubis),(Citation: Lookout-Dendroid),(Citation: SecurityIntelligence TrickMo),(Citation: ThreatFabric Ginp),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader),(Citation: Proofpoint-Marcher),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: Cofense Anubis),(Citation: Threat Fabric Cerberus),(Citation: SecureList DVMap June 2017),</t>
   </si>
   <si>
     <t>(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Threat Fabric Cerberus),(Citation: Lookout-BrainTest),(Citation: Kaspersky-Skygofree),(Citation: Google Triada June 2019),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Trend Micro Anubis),(Citation: Lookout ViperRAT),(Citation: Sophos Red Alert 2.0),(Citation: Xiao-ZergHelper),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: SecureList DVMap June 2017),(Citation: Symantec GoldenCup),(Citation: BlackBerry Bahamut),(Citation: Google Security Zen),(Citation: Cybereason EventBot),(Citation: Talos GPlayed),(Citation: CheckPoint-Judy),(Citation: Lookout Desert Scorpion),(Citation: WhiteOps TERRACOTTA),(Citation: Google Bread),(Citation: PaloAlto-SpyDealer),(Citation: Android 10 Execute)</t>
+    <t>(Citation: Symantec GoldenCup),(Citation: Cybereason EventBot),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: Google Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Kaspersky-Skygofree),(Citation: Google Security Zen),(Citation: Xiao-ZergHelper),(Citation: Lookout-BrainTest),(Citation: Lookout FrozenCell),(Citation: Palo Alto HenBox),(Citation: BlackBerry Bahamut),(Citation: CheckPoint-Judy),(Citation: Talos GPlayed),(Citation: Google Bread),(Citation: Lookout eSurv),(Citation: SecureList DVMap June 2017),(Citation: PaloAlto-SpyDealer),(Citation: Talos-WolfRAT),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-RCSAndroid),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: Android 10 Execute)</t>
   </si>
   <si>
     <t>(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),(Citation: Volexity Insomnia),</t>
@@ -2233,37 +2233,37 @@
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: CheckPoint-Charger),(Citation: PaloAlto-Xbot),(Citation: Talos GPlayed),</t>
+    <t>(Citation: Threat Fabric Exobot),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),</t>
   </si>
   <si>
     <t>,(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Triada June 2019),(Citation: Wandera-RedDrop),</t>
+    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Triada June 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Bitdefender - Triout 2018),(Citation: Wandera-RedDrop),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),(Citation: SecureList - ViceLeaker 2019),</t>
   </si>
   <si>
     <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint Agent Smith),(Citation: Gooligan Citation),(Citation: Google Security Zen),(Citation: Volexity Insomnia),(Citation: Lookout-BrainTest),(Citation: Lookout Dark Caracal Jan 2018),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-Pegasus),(Citation: Lookout-Adware),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: SecureList DVMap June 2017),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-PegasusAndroid),</t>
+    <t>(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Adware),(Citation: SWB Exodus March 2019),(Citation: Gooligan Citation),(Citation: ArsTechnica-HummingBad),(Citation: Volexity Insomnia),(Citation: Kaspersky-Skygofree),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Security Zen),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: SecureList DVMap June 2017),(Citation: Lookout-BrainTest),</t>
   </si>
   <si>
     <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint Agent Smith),(Citation: Talos GPlayed),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Talos-WolfRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: BlackBerry Bahamut),(Citation: Symantec GoldenCup),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: Threat Fabric Exobot),(Citation: Kaspersky Riltok June 2019),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-Xbot),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Dendroid),(Citation: Proofpoint-Marcher),(Citation: PaloAlto-XcodeGhost),(Citation: securelist rotexy 2018),(Citation: Sophos Red Alert 2.0),(Citation: Talos Gustuff Apr 2019),(Citation: ThreatFabric Ginp),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: Talos GPlayed),(Citation: Group IB Gustuff Mar 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Triada June 2019),(Citation: CheckPoint Agent Smith),(Citation: Gooligan Citation),(Citation: CheckPoint-Judy),(Citation: ArsTechnica-HummingWhale),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingBad),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Triada June 2016),(Citation: Lookout-EnterpriseApps),(Citation: Google Bread),(Citation: CheckPoint SimBad 2019),(Citation: Google Security Zen),(Citation: Tripwire-MazarBOT),(Citation: Wandera-RedDrop),</t>
+    <t>(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint Agent Smith),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason EventBot),(Citation: PaloAlto-Xbot),(Citation: PaloAlto-XcodeGhost),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: Cofense Anubis),(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler TikTok Spyware),(Citation: securelist rotexy 2018),(Citation: Proofpoint-Marcher),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-Dendroid),(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: Tripwire-MazarBOT),(Citation: Lookout-EnterpriseApps),(Citation: WhiteOps TERRACOTTA),(Citation: Gooligan Citation),(Citation: ArsTechnica-HummingBad),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint-Judy),(Citation: CheckPoint SimBad 2019),(Citation: Google Triada June 2019),(Citation: Wandera-RedDrop),(Citation: Kaspersky Triada June 2016),(Citation: Google Security Zen),(Citation: CheckPoint Agent Smith),(Citation: ArsTechnica-HummingWhale),(Citation: Google Bread),(Citation: Lookout-BrainTest),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),</t>
@@ -2275,97 +2275,97 @@
     <t>(Citation: CitizenLab Circles),(Citation: CSRIC-WG1-FinalReport)</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: Wandera-RedDrop),</t>
+    <t>(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
     <t>,(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: Talos Gustuff Apr 2019),(Citation: CheckPoint Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: ThreatFabric Ginp),(Citation: Kaspersky Riltok June 2019),(Citation: ESET DEFENSOR ID),(Citation: Google Security Zen),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),</t>
+    <t>(Citation: ESET DEFENSOR ID),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Riltok June 2019),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: Google Security Zen),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: Talos Gustuff Apr 2019),(Citation: CheckPoint Cerberus),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Threat Fabric Cerberus),(Citation: FlexiSpy-Features),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Lookout-Monokle),(Citation: BlackBerry Bahamut),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Threat Fabric Cerberus),(Citation: CyberMerchants-FlexiSpy),(Citation: CheckPoint-Charger),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: Lookout-StealthMango),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout ViperRAT),(Citation: CrowdStrike-Android),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: BlackBerry Bahamut),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SpyNote),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky-WUC),(Citation: NYTimes-BackDoor),(Citation: PaloAlto-SpyDealer),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Google Bread),</t>
-  </si>
-  <si>
-    <t>(Citation: Volexity Insomnia),(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint Cerberus),(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Lookout-BrainTest),(Citation: TrendMicro-Obad),(Citation: CheckPoint-Charger),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: Talos-WolfRAT),(Citation: Volexity Insomnia),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: FortiGuard-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: TrendMicro-XLoader),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist rotexy 2018),(Citation: PaloAlto-WireLurker),(Citation: Check Point-Joker),(Citation: Sophos Red Alert 2.0),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: ThreatFabric Ginp),(Citation: SecureList DVMap June 2017),(Citation: BlackBerry Bahamut),(Citation: Google Security Zen),(Citation: Cybereason EventBot),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: Microsoft MalLockerB),(Citation: WhiteOps TERRACOTTA),(Citation: Google Bread),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Lookout-StealthMango),(Citation: TrendMicro-RCSAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Kaspersky-WUC),(Citation: Kaspersky-Skygofree),(Citation: PaloAlto-SpyDealer),(Citation: securelist rotexy 2018),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Obad),</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: Zimperium z9),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),</t>
+    <t>(Citation: Cybereason EventBot),(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Exobot),(Citation: Cofense Anubis),(Citation: Threat Fabric Cerberus),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec GoldenCup),(Citation: Lookout-Pegasus),(Citation: CyberMerchants-FlexiSpy),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-WUC),(Citation: Kaspersky-Skygofree),(Citation: NYTimes-BackDoor),(Citation: CheckPoint-Charger),(Citation: Zscaler-SpyNote),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: BlackBerry Bahamut),(Citation: Bitdefender - Triout 2018),(Citation: Talos GPlayed),(Citation: CrowdStrike-Android),(Citation: Cofense Anubis),(Citation: Lookout-StealthMango),(Citation: Lookout eSurv),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-EnterpriseApps),(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Monokle),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Securelist Asacub),(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: SWB Exodus March 2019),(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),(Citation: FortiGuard-FlexiSpy),(Citation: CheckPoint Cerberus),</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason EventBot),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: CheckPoint-Charger),(Citation: Lookout-BrainTest),(Citation: Microsoft MalLockerB),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: BlackBerry Bahamut),(Citation: Talos GPlayed),(Citation: Cybereason FakeSpy),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: SecureList DVMap June 2017),(Citation: Check Point-Joker),(Citation: Talos-WolfRAT),(Citation: PaloAlto-WireLurker),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-Obad),(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-WUC),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: TrendMicro-RCSAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-Obad),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: CheckPoint Agent Smith),(Citation: securelist rotexy 2018),(Citation: Zimperium z9),</t>
   </si>
   <si>
     <t>(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
-    <t>(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Project Zero Insomnia),(Citation: Google Security Zen),</t>
+    <t>(Citation: Google Project Zero Insomnia),(Citation: Google Security Zen),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
   </si>
   <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Threat Fabric Cerberus),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: Lookout-Dendroid),(Citation: securelist rotexy 2018),(Citation: Sophos Red Alert 2.0),(Citation: ThreatFabric Ginp),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),(Citation: WhiteOps TERRACOTTA),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Threat Fabric Cerberus),(Citation: CyberMerchants-FlexiSpy),(Citation: Threat Fabric Exobot),(Citation: Lookout-EnterpriseApps),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Bitdefender Mandrake),(Citation: Lookout-StealthMango),(Citation: PaloAlto-Xbot),(Citation: SecurityIntelligence TrickMo),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: FireEye-RuMMS),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FlexiSpy-Features),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Dendroid),(Citation: Palo Alto HenBox),(Citation: TrendMicro-XLoader),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist rotexy 2018),(Citation: Lookout ViperRAT),(Citation: Google Project Zero Insomnia),(Citation: Sophos Red Alert 2.0),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: ThreatFabric Ginp),(Citation: BlackBerry Bahamut),(Citation: Symantec GoldenCup),(Citation: Tripwire-MazarBOT),(Citation: Cybereason EventBot),(Citation: Talos GPlayed),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SpyNote),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky-WUC),(Citation: Google Bread),(Citation: NYTimes-BackDoor),(Citation: PaloAlto-SpyDealer),</t>
+    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: Lookout-StealthMango),(Citation: Cofense Anubis),(Citation: Cybereason FakeSpy),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-Dendroid),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: Securelist Asacub),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Tripwire-MazarBOT),(Citation: Zscaler-SuperMarioRun),(Citation: Symantec GoldenCup),(Citation: Cybereason EventBot),(Citation: CyberMerchants-FlexiSpy),(Citation: SecureList BusyGasper),(Citation: Lookout-Pegasus),(Citation: Kaspersky Triada March 2016),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-Xbot),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-WUC),(Citation: NYTimes-BackDoor),(Citation: FireEye-RuMMS),(Citation: Zscaler-SpyNote),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout FrozenCell),(Citation: FlexiSpy-Features),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: BlackBerry Bahamut),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: Lookout-StealthMango),(Citation: Cybereason FakeSpy),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-SpyDealer),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Google Project Zero Insomnia),(Citation: securelist rotexy 2018),(Citation: TrendMicro-RCSAndroid),(Citation: TrendMicro-XLoader),(Citation: Lookout-EnterpriseApps),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-Dendroid),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),</t>
   </si>
   <si>
     <t>(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: PaloAlto-SpyDealer),(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: ThreatFabric Ginp),(Citation: Talos-WolfRAT),(Citation: ESET DEFENSOR ID),(Citation: Cofense Anubis),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: Google Triada June 2019),(Citation: Bitdefender Mandrake),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: FlexiSpy-Features),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist rotexy 2018),(Citation: Google Project Zero Insomnia),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: ThreatFabric Ginp),(Citation: ESET DEFENSOR ID),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason EventBot),(Citation: CheckPoint Agent Smith),(Citation: Talos GPlayed),(Citation: Lookout Desert Scorpion),(Citation: WhiteOps TERRACOTTA),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),</t>
-  </si>
-  <si>
-    <t>,(Citation: Android App Links),(Citation: iOS Universal Links),(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: FortiGuard-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: PaloAlto-SpyDealer),(Citation: Bitdefender Mandrake),(Citation: Lookout-PegasusAndroid),</t>
-  </si>
-  <si>
-    <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: CheckPoint Agent Smith),(Citation: Threat Fabric Cerberus),(Citation: Zscaler TikTok Spyware),(Citation: ESET-Twitoor),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: securelist rotexy 2018),(Citation: FlexiSpy-Features),(Citation: Lookout Desert Scorpion),(Citation: Group IB Gustuff Mar 2019),(Citation: Bitdefender - Triout 2018),(Citation: FortiGuard-FlexiSpy),(Citation: Cybereason FakeSpy),(Citation: ThreatFabric Ginp),(Citation: CheckPoint SimBad 2019),(Citation: Bitdefender Mandrake),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: securelist rotexy 2018),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: Cybereason FakeSpy),(Citation: ThreatFabric Ginp),(Citation: Palo Alto HenBox),(Citation: BlackBerry Bahamut),(Citation: Talos-WolfRAT),(Citation: Trend Micro Anubis),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: Zscaler TikTok Spyware),(Citation: FireEye-RuMMS),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Xiao-KeyRaider),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist rotexy 2018),(Citation: Lookout ViperRAT),(Citation: Google Project Zero Insomnia),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: SecureList DVMap June 2017),(Citation: BlackBerry Bahamut),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver2),(Citation: Symantec GoldenCup),(Citation: Cybereason EventBot),(Citation: Talos GPlayed),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: CheckPoint Cerberus),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Kaspersky-WUC),(Citation: Wandera-RedDrop),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Exobot),(Citation: Lookout-EnterpriseApps),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Talos-WolfRAT),(Citation: PaloAlto-SpyDealer),(Citation: FireEye-RuMMS),(Citation: securelist rotexy 2018),(Citation: Lookout ViperRAT),(Citation: Google Project Zero Insomnia),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: TrendMicro-Anserver2),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason EventBot),(Citation: Talos GPlayed),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: WhiteOps TERRACOTTA),(Citation: Google Bread),(Citation: PaloAlto-DualToy),(Citation: Wandera-RedDrop),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: FlexiSpy-Features),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),</t>
+    <t>(Citation: Cybereason EventBot),(Citation: ESET DEFENSOR ID),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: FlexiSpy-Features),(Citation: SWB Exodus March 2019),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec GoldenCup),(Citation: Cybereason EventBot),(Citation: SWB Exodus March 2019),(Citation: Google Triada June 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecureList - ViceLeaker 2019),(Citation: ESET DEFENSOR ID),(Citation: FlexiSpy-Features),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: Google Project Zero Insomnia),(Citation: Lookout Desert Scorpion),(Citation: securelist rotexy 2018),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky Riltok June 2019),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Dark Caracal Jan 2018),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Monokle),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),</t>
+  </si>
+  <si>
+    <t>,(Citation: iOS Universal Links),(Citation: Android App Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: IETF-PKCE)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout FrozenCell),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),(Citation: Kaspersky-Skygofree),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-RCSAndroid),</t>
+  </si>
+  <si>
+    <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: ESET-Twitoor),(Citation: Lookout Uyghur Campaign),(Citation: FlexiSpy-Features),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: Zscaler TikTok Spyware),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint Agent Smith),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: ThreatFabric Ginp),(Citation: Group IB Gustuff Mar 2019),(Citation: CheckPoint SimBad 2019),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Anubis),(Citation: Palo Alto HenBox),(Citation: BlackBerry Bahamut),(Citation: Lookout-Dendroid),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec GoldenCup),(Citation: Cybereason EventBot),(Citation: Lookout-Pegasus),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-WUC),(Citation: Wandera-RedDrop),(Citation: FireEye-RuMMS),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: Cofense Anubis),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: Lookout eSurv),(Citation: SecureList DVMap June 2017),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-Anserver2),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Google Project Zero Insomnia),(Citation: securelist rotexy 2018),(Citation: Xiao-KeyRaider),(Citation: Kaspersky Riltok June 2019),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec GoldenCup),(Citation: Cybereason EventBot),(Citation: PaloAlto-DualToy),(Citation: SWB Exodus March 2019),(Citation: TrendMicro Coronavirus Updates),(Citation: Wandera-RedDrop),(Citation: FireEye-RuMMS),(Citation: Lookout FrozenCell),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro-Anserver2),(Citation: Talos-WolfRAT),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: Google Project Zero Insomnia),(Citation: securelist rotexy 2018),(Citation: Lookout-EnterpriseApps),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Riltok June 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Securelist Asacub),(Citation: Lookout-Monokle),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: FlexiSpy-Features),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),</t>
   </si>
   <si>
     <t>(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
@@ -2377,16 +2377,16 @@
     <t>(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),</t>
   </si>
   <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),</t>
+    <t>(Citation: SecureList BusyGasper),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
     <t>(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Dendroid),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout ViperRAT),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: BlackBerry Bahamut),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-MobileMalware),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: Kaspersky-Skygofree),(Citation: SecurityIntelligence TrickMo),(Citation: Volexity Insomnia),(Citation: FireEye-RuMMS),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: securelist rotexy 2018),(Citation: Sophos Red Alert 2.0),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos Gustuff Apr 2019),(Citation: SWB Exodus March 2019),(Citation: ESET DEFENSOR ID),(Citation: Symantec GoldenCup),(Citation: Cybereason EventBot),(Citation: Talos GPlayed),(Citation: TrendMicro Coronavirus Updates),(Citation: Securelist Asacub),(Citation: CheckPoint Cerberus),(Citation: Kaspersky-WUC),(Citation: Google Bread),(Citation: Wandera-RedDrop),</t>
+    <t>(Citation: Zscaler-SuperMarioRun),(Citation: Symantec GoldenCup),(Citation: CyberMerchants-FlexiSpy),(Citation: SecureList BusyGasper),(Citation: SWB Exodus March 2019),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-Skygofree),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: BlackBerry Bahamut),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Dendroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec GoldenCup),(Citation: Cybereason EventBot),(Citation: SWB Exodus March 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-WUC),(Citation: Kaspersky-Skygofree),(Citation: Wandera-RedDrop),(Citation: FireEye-RuMMS),(Citation: SecureList - ViceLeaker 2019),(Citation: ESET DEFENSOR ID),(Citation: Bitdefender - Triout 2018),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Google Bread),(Citation: Kaspersky-MobileMalware),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: Sophos Red Alert 2.0),(Citation: Volexity Insomnia),(Citation: Kaspersky Riltok June 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Securelist Asacub),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CheckPoint Cerberus),</t>
   </si>
   <si>
     <t>source ID</t>
